--- a/src/component/data/01062021 TxCRCP-ME Analysis Result Sheet.xlsx
+++ b/src/component/data/01062021 TxCRCP-ME Analysis Result Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\STORE\nvtngan\project\github\txDoT\src\component\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57963402-BFB7-44BB-887A-CEEBED3B4828}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A3C54D3-AA11-4374-AAD2-D23C0D9EBCF9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -301,7 +301,7 @@
     </r>
   </si>
   <si>
-    <t>TxCRCP-ME Anakysis Report</t>
+    <t>TxCRCP-ME Analysis</t>
   </si>
 </sst>
 </file>
@@ -404,9 +404,8 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF141E36"/>
+      <color theme="1"/>
       <name val="Franklin Gothic Book"/>
       <family val="2"/>
     </font>
@@ -581,7 +580,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -600,9 +599,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
@@ -693,16 +689,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -716,15 +703,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -747,17 +725,32 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -785,16 +778,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>212789</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>48165</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>108216</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>17930</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>213093</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -820,8 +813,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4820648" y="6807553"/>
-          <a:ext cx="3516527" cy="149059"/>
+          <a:off x="0" y="0"/>
+          <a:ext cx="8686800" cy="213093"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -841,16 +834,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>71717</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>15242</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>21771</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>326572</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>54429</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>26237</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>674914</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>851977</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -877,8 +870,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7584141" y="6953924"/>
-          <a:ext cx="699247" cy="557842"/>
+          <a:off x="163285" y="326572"/>
+          <a:ext cx="653143" cy="525405"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1187,1120 +1180,1122 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T42"/>
+  <dimension ref="A1:V42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="70" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="V10" sqref="V10"/>
+      <selection activeCell="W34" sqref="W34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2" style="20" customWidth="1"/>
-    <col min="2" max="2" width="43.21875" style="20" customWidth="1"/>
-    <col min="3" max="3" width="17.6640625" style="49" customWidth="1"/>
-    <col min="4" max="4" width="2" style="49" customWidth="1"/>
-    <col min="5" max="5" width="0.44140625" style="20" customWidth="1"/>
-    <col min="6" max="6" width="2" style="20" customWidth="1"/>
-    <col min="7" max="16" width="4.6640625" style="20" customWidth="1"/>
-    <col min="17" max="17" width="3.88671875" style="20" customWidth="1"/>
-    <col min="18" max="18" width="1.77734375" style="20" customWidth="1"/>
-    <col min="19" max="19" width="5.44140625" style="49" customWidth="1"/>
-    <col min="20" max="20" width="2" style="20" customWidth="1"/>
-    <col min="21" max="16384" width="9.109375" style="20"/>
+    <col min="1" max="1" width="2" style="19" customWidth="1"/>
+    <col min="2" max="2" width="43.21875" style="19" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" style="45" customWidth="1"/>
+    <col min="4" max="4" width="2" style="45" customWidth="1"/>
+    <col min="5" max="5" width="0.44140625" style="19" customWidth="1"/>
+    <col min="6" max="6" width="2" style="19" customWidth="1"/>
+    <col min="7" max="16" width="4.6640625" style="19" customWidth="1"/>
+    <col min="17" max="17" width="3.88671875" style="19" customWidth="1"/>
+    <col min="18" max="18" width="1.77734375" style="19" customWidth="1"/>
+    <col min="19" max="19" width="5.44140625" style="45" customWidth="1"/>
+    <col min="20" max="20" width="2" style="19" customWidth="1"/>
+    <col min="21" max="16384" width="9.109375" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="7.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="61"/>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62"/>
-      <c r="N1" s="62"/>
-      <c r="O1" s="62"/>
-      <c r="P1" s="62"/>
-      <c r="Q1" s="62"/>
-      <c r="R1" s="62"/>
-      <c r="S1" s="62"/>
-      <c r="T1" s="62"/>
-    </row>
-    <row r="2" spans="1:20" ht="18.600000000000001" x14ac:dyDescent="0.3">
-      <c r="A2" s="22"/>
-      <c r="B2" s="52" t="s">
+    <row r="1" spans="1:22" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="59" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
+      <c r="N1" s="58"/>
+      <c r="O1" s="58"/>
+      <c r="P1" s="58"/>
+      <c r="Q1" s="58"/>
+      <c r="R1" s="58"/>
+      <c r="S1" s="58"/>
+      <c r="T1" s="58"/>
+    </row>
+    <row r="2" spans="1:22" ht="18.600000000000001" x14ac:dyDescent="0.3">
+      <c r="A2" s="21"/>
+      <c r="B2" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="52"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="52" t="s">
+      <c r="C2" s="54"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="52"/>
-      <c r="N2" s="52"/>
-      <c r="O2" s="52"/>
-      <c r="P2" s="52"/>
-      <c r="Q2" s="52"/>
-      <c r="R2" s="52"/>
-      <c r="S2" s="52"/>
-      <c r="T2" s="19"/>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A3" s="22"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="56"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="54"/>
+      <c r="N2" s="54"/>
+      <c r="O2" s="54"/>
+      <c r="P2" s="54"/>
+      <c r="Q2" s="54"/>
+      <c r="R2" s="54"/>
+      <c r="S2" s="54"/>
+      <c r="T2" s="18"/>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A3" s="21"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="49"/>
       <c r="F3" s="6"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="7"/>
-      <c r="S3" s="7"/>
-      <c r="T3" s="19"/>
-    </row>
-    <row r="4" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="22"/>
-      <c r="B4" s="50" t="s">
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="55"/>
+      <c r="L3" s="55"/>
+      <c r="M3" s="55"/>
+      <c r="N3" s="55"/>
+      <c r="O3" s="55"/>
+      <c r="P3" s="55"/>
+      <c r="Q3" s="55"/>
+      <c r="R3" s="55"/>
+      <c r="S3" s="55"/>
+      <c r="T3" s="18"/>
+    </row>
+    <row r="4" spans="1:22" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="21"/>
+      <c r="B4" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="50"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="56"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="49"/>
       <c r="F4" s="6"/>
-      <c r="G4" s="51" t="s">
+      <c r="G4" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="H4" s="51"/>
-      <c r="I4" s="51"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="51"/>
-      <c r="L4" s="51"/>
-      <c r="M4" s="51"/>
-      <c r="N4" s="51"/>
-      <c r="O4" s="51"/>
-      <c r="P4" s="51"/>
-      <c r="Q4" s="51"/>
-      <c r="R4" s="51"/>
-      <c r="S4" s="51"/>
-      <c r="T4" s="19"/>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A5" s="22"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="56"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="57"/>
+      <c r="L4" s="57"/>
+      <c r="M4" s="57"/>
+      <c r="N4" s="57"/>
+      <c r="O4" s="57"/>
+      <c r="P4" s="57"/>
+      <c r="Q4" s="57"/>
+      <c r="R4" s="57"/>
+      <c r="S4" s="57"/>
+      <c r="T4" s="18"/>
+      <c r="V4" s="61"/>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A5" s="21"/>
+      <c r="B5" s="55"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="49"/>
       <c r="F5" s="6"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="7"/>
-      <c r="S5" s="7"/>
-      <c r="T5" s="19"/>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A6" s="22"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="55"/>
+      <c r="J5" s="55"/>
+      <c r="K5" s="55"/>
+      <c r="L5" s="55"/>
+      <c r="M5" s="55"/>
+      <c r="N5" s="55"/>
+      <c r="O5" s="55"/>
+      <c r="P5" s="55"/>
+      <c r="Q5" s="55"/>
+      <c r="R5" s="55"/>
+      <c r="S5" s="55"/>
+      <c r="T5" s="18"/>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A6" s="21"/>
       <c r="B6" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="10"/>
-      <c r="E6" s="56"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="49"/>
       <c r="F6" s="6"/>
-      <c r="G6" s="11" t="s">
+      <c r="G6" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="10"/>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="10"/>
-      <c r="R6" s="10"/>
-      <c r="S6" s="12">
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="9"/>
+      <c r="S6" s="11">
         <v>13</v>
       </c>
-      <c r="T6" s="19"/>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A7" s="22"/>
+      <c r="T6" s="18"/>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A7" s="21"/>
       <c r="B7" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="10"/>
-      <c r="E7" s="56"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="49"/>
       <c r="F7" s="6"/>
-      <c r="G7" s="13" t="s">
+      <c r="G7" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="14"/>
-      <c r="O7" s="14"/>
-      <c r="P7" s="14"/>
-      <c r="Q7" s="14"/>
-      <c r="R7" s="14"/>
-      <c r="S7" s="15">
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="13"/>
+      <c r="P7" s="13"/>
+      <c r="Q7" s="13"/>
+      <c r="R7" s="13"/>
+      <c r="S7" s="14">
         <v>8.8401751229188417</v>
       </c>
-      <c r="T7" s="19"/>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A8" s="22"/>
+      <c r="T7" s="18"/>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A8" s="21"/>
       <c r="B8" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="56"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="49"/>
       <c r="F8" s="6"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="23"/>
-      <c r="J8" s="23"/>
-      <c r="K8" s="23"/>
-      <c r="L8" s="23"/>
-      <c r="M8" s="23"/>
-      <c r="N8" s="23"/>
-      <c r="O8" s="23"/>
-      <c r="P8" s="23"/>
-      <c r="Q8" s="23"/>
-      <c r="R8" s="23"/>
-      <c r="S8" s="24"/>
-      <c r="T8" s="19"/>
-    </row>
-    <row r="9" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A9" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="22"/>
+      <c r="N8" s="22"/>
+      <c r="O8" s="22"/>
+      <c r="P8" s="22"/>
+      <c r="Q8" s="22"/>
+      <c r="R8" s="22"/>
+      <c r="S8" s="23"/>
+      <c r="T8" s="18"/>
+    </row>
+    <row r="9" spans="1:22" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="21"/>
       <c r="B9" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="56"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="49"/>
       <c r="F9" s="6"/>
-      <c r="G9" s="51" t="s">
+      <c r="G9" s="57" t="s">
         <v>46</v>
       </c>
-      <c r="H9" s="51"/>
-      <c r="I9" s="51"/>
-      <c r="J9" s="51"/>
-      <c r="K9" s="51"/>
-      <c r="L9" s="51"/>
-      <c r="M9" s="51"/>
-      <c r="N9" s="51"/>
-      <c r="O9" s="51"/>
-      <c r="P9" s="51"/>
-      <c r="Q9" s="51"/>
-      <c r="R9" s="51"/>
-      <c r="S9" s="51"/>
-      <c r="T9" s="19"/>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A10" s="22"/>
+      <c r="H9" s="57"/>
+      <c r="I9" s="57"/>
+      <c r="J9" s="57"/>
+      <c r="K9" s="57"/>
+      <c r="L9" s="57"/>
+      <c r="M9" s="57"/>
+      <c r="N9" s="57"/>
+      <c r="O9" s="57"/>
+      <c r="P9" s="57"/>
+      <c r="Q9" s="57"/>
+      <c r="R9" s="57"/>
+      <c r="S9" s="57"/>
+      <c r="T9" s="18"/>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A10" s="21"/>
       <c r="B10" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="56"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="49"/>
       <c r="F10" s="6"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="16"/>
-      <c r="M10" s="16"/>
-      <c r="N10" s="16"/>
-      <c r="O10" s="16"/>
-      <c r="P10" s="16"/>
-      <c r="Q10" s="16"/>
-      <c r="R10" s="16"/>
-      <c r="S10" s="16"/>
-      <c r="T10" s="19"/>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A11" s="22"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="15"/>
+      <c r="Q10" s="15"/>
+      <c r="R10" s="15"/>
+      <c r="S10" s="15"/>
+      <c r="T10" s="18"/>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A11" s="21"/>
       <c r="B11" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="10"/>
-      <c r="E11" s="56"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="49"/>
       <c r="F11" s="6"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="27"/>
-      <c r="J11" s="27"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="28"/>
-      <c r="M11" s="28"/>
-      <c r="N11" s="28"/>
-      <c r="O11" s="28"/>
-      <c r="P11" s="28"/>
-      <c r="Q11" s="28"/>
-      <c r="R11" s="28"/>
-      <c r="S11" s="25"/>
-      <c r="T11" s="19"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A12" s="22"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="27"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="27"/>
+      <c r="N11" s="27"/>
+      <c r="O11" s="27"/>
+      <c r="P11" s="27"/>
+      <c r="Q11" s="27"/>
+      <c r="R11" s="27"/>
+      <c r="S11" s="24"/>
+      <c r="T11" s="18"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A12" s="21"/>
       <c r="B12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="10"/>
-      <c r="E12" s="56"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="49"/>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="30" t="s">
+      <c r="H12" s="28"/>
+      <c r="I12" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="J12" s="29"/>
-      <c r="K12" s="29"/>
-      <c r="L12" s="29" t="s">
+      <c r="J12" s="28"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="M12" s="31"/>
-      <c r="N12" s="31"/>
-      <c r="O12" s="29" t="s">
+      <c r="M12" s="30"/>
+      <c r="N12" s="30"/>
+      <c r="O12" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="P12" s="31"/>
-      <c r="Q12" s="31"/>
-      <c r="R12" s="31"/>
-      <c r="S12" s="23"/>
-      <c r="T12" s="19"/>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A13" s="22"/>
+      <c r="P12" s="30"/>
+      <c r="Q12" s="30"/>
+      <c r="R12" s="30"/>
+      <c r="S12" s="22"/>
+      <c r="T12" s="18"/>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A13" s="21"/>
       <c r="B13" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="56"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="49"/>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="29"/>
-      <c r="J13" s="29"/>
-      <c r="K13" s="29"/>
-      <c r="L13" s="29"/>
-      <c r="M13" s="31"/>
-      <c r="N13" s="31"/>
-      <c r="O13" s="29"/>
-      <c r="P13" s="31"/>
-      <c r="Q13" s="31"/>
-      <c r="R13" s="31"/>
-      <c r="S13" s="23"/>
-      <c r="T13" s="19"/>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A14" s="22"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="28"/>
+      <c r="M13" s="30"/>
+      <c r="N13" s="30"/>
+      <c r="O13" s="28"/>
+      <c r="P13" s="30"/>
+      <c r="Q13" s="30"/>
+      <c r="R13" s="30"/>
+      <c r="S13" s="22"/>
+      <c r="T13" s="18"/>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A14" s="21"/>
       <c r="B14" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="56"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="49"/>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
-      <c r="H14" s="29"/>
-      <c r="I14" s="29"/>
-      <c r="J14" s="29"/>
-      <c r="K14" s="29"/>
-      <c r="L14" s="29"/>
-      <c r="M14" s="31"/>
-      <c r="N14" s="31"/>
-      <c r="O14" s="29"/>
-      <c r="P14" s="31"/>
-      <c r="Q14" s="31"/>
-      <c r="R14" s="31"/>
-      <c r="S14" s="23"/>
-      <c r="T14" s="19"/>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A15" s="22"/>
-      <c r="B15" s="23"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="56"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="28"/>
+      <c r="L14" s="28"/>
+      <c r="M14" s="30"/>
+      <c r="N14" s="30"/>
+      <c r="O14" s="28"/>
+      <c r="P14" s="30"/>
+      <c r="Q14" s="30"/>
+      <c r="R14" s="30"/>
+      <c r="S14" s="22"/>
+      <c r="T14" s="18"/>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A15" s="21"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="49"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="29"/>
-      <c r="J15" s="29"/>
-      <c r="K15" s="29"/>
-      <c r="L15" s="31"/>
-      <c r="M15" s="31"/>
-      <c r="N15" s="31"/>
-      <c r="O15" s="29"/>
-      <c r="P15" s="31"/>
-      <c r="Q15" s="31"/>
-      <c r="R15" s="31"/>
-      <c r="S15" s="23"/>
-      <c r="T15" s="19"/>
-    </row>
-    <row r="16" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A16" s="22"/>
-      <c r="B16" s="50" t="s">
+      <c r="H15" s="28"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="28"/>
+      <c r="L15" s="30"/>
+      <c r="M15" s="30"/>
+      <c r="N15" s="30"/>
+      <c r="O15" s="28"/>
+      <c r="P15" s="30"/>
+      <c r="Q15" s="30"/>
+      <c r="R15" s="30"/>
+      <c r="S15" s="22"/>
+      <c r="T15" s="18"/>
+    </row>
+    <row r="16" spans="1:22" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A16" s="21"/>
+      <c r="B16" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="50"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="56"/>
+      <c r="C16" s="56"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="49"/>
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="29"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="29"/>
-      <c r="L16" s="29"/>
-      <c r="M16" s="29"/>
-      <c r="N16" s="29"/>
-      <c r="O16" s="29"/>
-      <c r="P16" s="31"/>
-      <c r="Q16" s="31"/>
-      <c r="R16" s="31"/>
-      <c r="S16" s="23"/>
-      <c r="T16" s="19"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="28"/>
+      <c r="K16" s="28"/>
+      <c r="L16" s="28"/>
+      <c r="M16" s="28"/>
+      <c r="N16" s="28"/>
+      <c r="O16" s="28"/>
+      <c r="P16" s="30"/>
+      <c r="Q16" s="30"/>
+      <c r="R16" s="30"/>
+      <c r="S16" s="22"/>
+      <c r="T16" s="18"/>
     </row>
     <row r="17" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A17" s="22"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="56"/>
+      <c r="A17" s="21"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="49"/>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="32" t="s">
+      <c r="H17" s="31"/>
+      <c r="I17" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="J17" s="33"/>
-      <c r="K17" s="33"/>
-      <c r="L17" s="32" t="s">
+      <c r="J17" s="32"/>
+      <c r="K17" s="32"/>
+      <c r="L17" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="M17" s="33"/>
-      <c r="N17" s="33"/>
-      <c r="O17" s="32" t="s">
+      <c r="M17" s="32"/>
+      <c r="N17" s="32"/>
+      <c r="O17" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="P17" s="33"/>
-      <c r="Q17" s="33"/>
-      <c r="R17" s="33"/>
-      <c r="S17" s="23"/>
-      <c r="T17" s="19"/>
+      <c r="P17" s="32"/>
+      <c r="Q17" s="32"/>
+      <c r="R17" s="32"/>
+      <c r="S17" s="22"/>
+      <c r="T17" s="18"/>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A18" s="22"/>
+      <c r="A18" s="21"/>
       <c r="B18" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="10">
+      <c r="C18" s="9">
         <v>30</v>
       </c>
-      <c r="D18" s="10"/>
-      <c r="E18" s="56"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="49"/>
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
-      <c r="H18" s="34"/>
-      <c r="I18" s="34"/>
-      <c r="J18" s="35"/>
-      <c r="K18" s="35"/>
-      <c r="L18" s="36"/>
-      <c r="M18" s="36"/>
-      <c r="N18" s="36"/>
-      <c r="O18" s="35"/>
-      <c r="P18" s="36"/>
-      <c r="Q18" s="36"/>
-      <c r="R18" s="36"/>
-      <c r="S18" s="23"/>
-      <c r="T18" s="19"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="33"/>
+      <c r="J18" s="34"/>
+      <c r="K18" s="34"/>
+      <c r="L18" s="35"/>
+      <c r="M18" s="35"/>
+      <c r="N18" s="35"/>
+      <c r="O18" s="34"/>
+      <c r="P18" s="35"/>
+      <c r="Q18" s="35"/>
+      <c r="R18" s="35"/>
+      <c r="S18" s="22"/>
+      <c r="T18" s="18"/>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A19" s="22"/>
+      <c r="A19" s="21"/>
       <c r="B19" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="10">
+      <c r="C19" s="9">
         <v>10</v>
       </c>
-      <c r="D19" s="10"/>
-      <c r="E19" s="56"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="49"/>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
-      <c r="H19" s="35"/>
-      <c r="I19" s="34" t="s">
+      <c r="H19" s="34"/>
+      <c r="I19" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="J19" s="35"/>
-      <c r="K19" s="35"/>
-      <c r="L19" s="35" t="s">
+      <c r="J19" s="34"/>
+      <c r="K19" s="34"/>
+      <c r="L19" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="M19" s="36"/>
-      <c r="N19" s="36"/>
-      <c r="O19" s="35" t="s">
+      <c r="M19" s="35"/>
+      <c r="N19" s="35"/>
+      <c r="O19" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="P19" s="36"/>
-      <c r="Q19" s="36"/>
-      <c r="R19" s="36"/>
-      <c r="S19" s="23"/>
-      <c r="T19" s="19"/>
+      <c r="P19" s="35"/>
+      <c r="Q19" s="35"/>
+      <c r="R19" s="35"/>
+      <c r="S19" s="22"/>
+      <c r="T19" s="18"/>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A20" s="22"/>
+      <c r="A20" s="21"/>
       <c r="B20" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="17">
+      <c r="C20" s="16">
         <v>4</v>
       </c>
-      <c r="D20" s="17"/>
-      <c r="E20" s="56"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="49"/>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
-      <c r="H20" s="35"/>
-      <c r="I20" s="35"/>
-      <c r="J20" s="35"/>
-      <c r="K20" s="35"/>
-      <c r="L20" s="35" t="s">
+      <c r="H20" s="34"/>
+      <c r="I20" s="34"/>
+      <c r="J20" s="34"/>
+      <c r="K20" s="34"/>
+      <c r="L20" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="M20" s="36"/>
-      <c r="N20" s="36"/>
-      <c r="O20" s="35" t="s">
+      <c r="M20" s="35"/>
+      <c r="N20" s="35"/>
+      <c r="O20" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="P20" s="36"/>
-      <c r="Q20" s="36"/>
-      <c r="R20" s="36"/>
-      <c r="S20" s="23"/>
-      <c r="T20" s="19"/>
+      <c r="P20" s="35"/>
+      <c r="Q20" s="35"/>
+      <c r="R20" s="35"/>
+      <c r="S20" s="22"/>
+      <c r="T20" s="18"/>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A21" s="22"/>
+      <c r="A21" s="21"/>
       <c r="B21" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="17">
+      <c r="C21" s="16">
         <v>106.82599999999999</v>
       </c>
-      <c r="D21" s="17"/>
-      <c r="E21" s="56"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="49"/>
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
-      <c r="H21" s="35"/>
-      <c r="I21" s="35"/>
-      <c r="J21" s="35"/>
-      <c r="K21" s="35"/>
-      <c r="L21" s="35"/>
-      <c r="M21" s="36"/>
-      <c r="N21" s="36"/>
-      <c r="O21" s="35"/>
-      <c r="P21" s="36"/>
-      <c r="Q21" s="36"/>
-      <c r="R21" s="36"/>
-      <c r="S21" s="23"/>
-      <c r="T21" s="19"/>
+      <c r="H21" s="34"/>
+      <c r="I21" s="34"/>
+      <c r="J21" s="34"/>
+      <c r="K21" s="34"/>
+      <c r="L21" s="34"/>
+      <c r="M21" s="35"/>
+      <c r="N21" s="35"/>
+      <c r="O21" s="34"/>
+      <c r="P21" s="35"/>
+      <c r="Q21" s="35"/>
+      <c r="R21" s="35"/>
+      <c r="S21" s="22"/>
+      <c r="T21" s="18"/>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A22" s="22"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="56"/>
+      <c r="A22" s="21"/>
+      <c r="B22" s="55"/>
+      <c r="C22" s="55"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="49"/>
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
-      <c r="H22" s="30"/>
-      <c r="I22" s="30"/>
-      <c r="J22" s="29"/>
-      <c r="K22" s="29"/>
-      <c r="L22" s="31"/>
-      <c r="M22" s="31"/>
-      <c r="N22" s="31"/>
-      <c r="O22" s="29"/>
-      <c r="P22" s="31"/>
-      <c r="Q22" s="31"/>
-      <c r="R22" s="31"/>
-      <c r="S22" s="23"/>
-      <c r="T22" s="19"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="29"/>
+      <c r="J22" s="28"/>
+      <c r="K22" s="28"/>
+      <c r="L22" s="30"/>
+      <c r="M22" s="30"/>
+      <c r="N22" s="30"/>
+      <c r="O22" s="28"/>
+      <c r="P22" s="30"/>
+      <c r="Q22" s="30"/>
+      <c r="R22" s="30"/>
+      <c r="S22" s="22"/>
+      <c r="T22" s="18"/>
     </row>
     <row r="23" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A23" s="22"/>
-      <c r="B23" s="50" t="s">
+      <c r="A23" s="21"/>
+      <c r="B23" s="56" t="s">
         <v>43</v>
       </c>
-      <c r="C23" s="50"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="56"/>
+      <c r="C23" s="56"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="49"/>
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
-      <c r="H23" s="29"/>
-      <c r="I23" s="30" t="s">
+      <c r="H23" s="28"/>
+      <c r="I23" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="J23" s="29"/>
-      <c r="K23" s="31"/>
-      <c r="L23" s="31" t="s">
+      <c r="J23" s="28"/>
+      <c r="K23" s="30"/>
+      <c r="L23" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="M23" s="31"/>
-      <c r="N23" s="31"/>
-      <c r="O23" s="29" t="s">
+      <c r="M23" s="30"/>
+      <c r="N23" s="30"/>
+      <c r="O23" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="P23" s="31"/>
-      <c r="Q23" s="31"/>
-      <c r="R23" s="31"/>
-      <c r="S23" s="23"/>
-      <c r="T23" s="19"/>
+      <c r="P23" s="30"/>
+      <c r="Q23" s="30"/>
+      <c r="R23" s="30"/>
+      <c r="S23" s="22"/>
+      <c r="T23" s="18"/>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A24" s="22"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="56"/>
+      <c r="A24" s="21"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="49"/>
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
-      <c r="H24" s="29"/>
-      <c r="I24" s="30"/>
-      <c r="J24" s="29"/>
-      <c r="K24" s="29"/>
-      <c r="L24" s="29" t="s">
+      <c r="H24" s="28"/>
+      <c r="I24" s="29"/>
+      <c r="J24" s="28"/>
+      <c r="K24" s="28"/>
+      <c r="L24" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="M24" s="31"/>
-      <c r="N24" s="31"/>
-      <c r="O24" s="29" t="s">
+      <c r="M24" s="30"/>
+      <c r="N24" s="30"/>
+      <c r="O24" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="P24" s="31"/>
-      <c r="Q24" s="31"/>
-      <c r="R24" s="31"/>
-      <c r="S24" s="23"/>
-      <c r="T24" s="19"/>
+      <c r="P24" s="30"/>
+      <c r="Q24" s="30"/>
+      <c r="R24" s="30"/>
+      <c r="S24" s="22"/>
+      <c r="T24" s="18"/>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A25" s="22"/>
+      <c r="A25" s="21"/>
       <c r="B25" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="C25" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D25" s="10"/>
-      <c r="E25" s="56"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="49"/>
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
-      <c r="H25" s="29"/>
-      <c r="I25" s="29"/>
-      <c r="J25" s="29"/>
-      <c r="K25" s="29"/>
-      <c r="L25" s="31"/>
-      <c r="M25" s="31"/>
-      <c r="N25" s="31"/>
-      <c r="O25" s="29"/>
-      <c r="P25" s="31"/>
-      <c r="Q25" s="31"/>
-      <c r="R25" s="31"/>
-      <c r="S25" s="23"/>
-      <c r="T25" s="19"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="28"/>
+      <c r="J25" s="28"/>
+      <c r="K25" s="28"/>
+      <c r="L25" s="30"/>
+      <c r="M25" s="30"/>
+      <c r="N25" s="30"/>
+      <c r="O25" s="28"/>
+      <c r="P25" s="30"/>
+      <c r="Q25" s="30"/>
+      <c r="R25" s="30"/>
+      <c r="S25" s="22"/>
+      <c r="T25" s="18"/>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A26" s="22"/>
+      <c r="A26" s="21"/>
       <c r="B26" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="C26" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D26" s="10"/>
-      <c r="E26" s="56"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="49"/>
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
-      <c r="H26" s="29"/>
-      <c r="I26" s="29"/>
-      <c r="J26" s="29"/>
-      <c r="K26" s="29"/>
-      <c r="L26" s="29"/>
-      <c r="M26" s="29"/>
-      <c r="N26" s="29"/>
-      <c r="O26" s="29"/>
-      <c r="P26" s="31"/>
-      <c r="Q26" s="31"/>
-      <c r="R26" s="31"/>
-      <c r="S26" s="23"/>
-      <c r="T26" s="19"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="28"/>
+      <c r="K26" s="28"/>
+      <c r="L26" s="28"/>
+      <c r="M26" s="28"/>
+      <c r="N26" s="28"/>
+      <c r="O26" s="28"/>
+      <c r="P26" s="30"/>
+      <c r="Q26" s="30"/>
+      <c r="R26" s="30"/>
+      <c r="S26" s="22"/>
+      <c r="T26" s="18"/>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A27" s="22"/>
+      <c r="A27" s="21"/>
       <c r="B27" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C27" s="10">
+      <c r="C27" s="9">
         <v>35</v>
       </c>
-      <c r="D27" s="10"/>
-      <c r="E27" s="57"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="37"/>
-      <c r="I27" s="37"/>
-      <c r="J27" s="38"/>
-      <c r="K27" s="38"/>
-      <c r="L27" s="38"/>
-      <c r="M27" s="38"/>
-      <c r="N27" s="38"/>
-      <c r="O27" s="39"/>
-      <c r="P27" s="38"/>
-      <c r="Q27" s="38"/>
-      <c r="R27" s="38"/>
-      <c r="S27" s="23"/>
-      <c r="T27" s="19"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="50"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="36"/>
+      <c r="I27" s="36"/>
+      <c r="J27" s="37"/>
+      <c r="K27" s="37"/>
+      <c r="L27" s="37"/>
+      <c r="M27" s="37"/>
+      <c r="N27" s="37"/>
+      <c r="O27" s="38"/>
+      <c r="P27" s="37"/>
+      <c r="Q27" s="37"/>
+      <c r="R27" s="37"/>
+      <c r="S27" s="22"/>
+      <c r="T27" s="18"/>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A28" s="22"/>
+      <c r="A28" s="21"/>
       <c r="B28" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C28" s="24" t="s">
+      <c r="C28" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="D28" s="24"/>
-      <c r="E28" s="58"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="23"/>
-      <c r="H28" s="38"/>
-      <c r="I28" s="37" t="s">
+      <c r="D28" s="23"/>
+      <c r="E28" s="51"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="37"/>
+      <c r="I28" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="J28" s="38"/>
-      <c r="K28" s="38"/>
-      <c r="L28" s="39" t="s">
+      <c r="J28" s="37"/>
+      <c r="K28" s="37"/>
+      <c r="L28" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="M28" s="38"/>
-      <c r="N28" s="38"/>
-      <c r="O28" s="39" t="s">
+      <c r="M28" s="37"/>
+      <c r="N28" s="37"/>
+      <c r="O28" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="P28" s="38"/>
-      <c r="Q28" s="38"/>
-      <c r="R28" s="38"/>
-      <c r="S28" s="23"/>
-      <c r="T28" s="19"/>
+      <c r="P28" s="37"/>
+      <c r="Q28" s="37"/>
+      <c r="R28" s="37"/>
+      <c r="S28" s="22"/>
+      <c r="T28" s="18"/>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A29" s="22"/>
+      <c r="A29" s="21"/>
       <c r="B29" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="C29" s="10">
+      <c r="C29" s="9">
         <v>12</v>
       </c>
-      <c r="D29" s="10"/>
-      <c r="E29" s="58"/>
-      <c r="F29" s="23"/>
-      <c r="G29" s="23"/>
-      <c r="H29" s="38"/>
-      <c r="I29" s="38"/>
-      <c r="J29" s="38"/>
-      <c r="K29" s="38"/>
-      <c r="L29" s="39" t="s">
+      <c r="D29" s="9"/>
+      <c r="E29" s="51"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="37"/>
+      <c r="I29" s="37"/>
+      <c r="J29" s="37"/>
+      <c r="K29" s="37"/>
+      <c r="L29" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="M29" s="38"/>
-      <c r="N29" s="38"/>
-      <c r="O29" s="39">
+      <c r="M29" s="37"/>
+      <c r="N29" s="37"/>
+      <c r="O29" s="38">
         <v>35</v>
       </c>
-      <c r="P29" s="38"/>
-      <c r="Q29" s="38"/>
-      <c r="R29" s="38"/>
-      <c r="S29" s="23"/>
-      <c r="T29" s="19"/>
+      <c r="P29" s="37"/>
+      <c r="Q29" s="37"/>
+      <c r="R29" s="37"/>
+      <c r="S29" s="22"/>
+      <c r="T29" s="18"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A30" s="22"/>
-      <c r="B30" s="23"/>
-      <c r="C30" s="24"/>
-      <c r="D30" s="24"/>
-      <c r="E30" s="58"/>
-      <c r="F30" s="23"/>
-      <c r="G30" s="23"/>
-      <c r="H30" s="39"/>
-      <c r="I30" s="38"/>
-      <c r="J30" s="38"/>
-      <c r="K30" s="38"/>
-      <c r="L30" s="38"/>
-      <c r="M30" s="38"/>
-      <c r="N30" s="38"/>
-      <c r="O30" s="38"/>
-      <c r="P30" s="38"/>
-      <c r="Q30" s="38"/>
-      <c r="R30" s="38"/>
-      <c r="S30" s="23"/>
-      <c r="T30" s="19"/>
+      <c r="A30" s="21"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="51"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="38"/>
+      <c r="I30" s="37"/>
+      <c r="J30" s="37"/>
+      <c r="K30" s="37"/>
+      <c r="L30" s="37"/>
+      <c r="M30" s="37"/>
+      <c r="N30" s="37"/>
+      <c r="O30" s="37"/>
+      <c r="P30" s="37"/>
+      <c r="Q30" s="37"/>
+      <c r="R30" s="37"/>
+      <c r="S30" s="22"/>
+      <c r="T30" s="18"/>
     </row>
     <row r="31" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A31" s="22"/>
-      <c r="B31" s="50" t="s">
+      <c r="A31" s="21"/>
+      <c r="B31" s="56" t="s">
         <v>44</v>
       </c>
-      <c r="C31" s="50"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="58"/>
-      <c r="F31" s="23"/>
-      <c r="G31" s="23"/>
-      <c r="H31" s="40"/>
-      <c r="I31" s="41"/>
-      <c r="J31" s="41"/>
-      <c r="K31" s="41"/>
-      <c r="L31" s="41"/>
-      <c r="M31" s="41"/>
-      <c r="N31" s="41"/>
-      <c r="O31" s="41"/>
-      <c r="P31" s="41"/>
-      <c r="Q31" s="41"/>
-      <c r="R31" s="41"/>
-      <c r="S31" s="23"/>
-      <c r="T31" s="19"/>
+      <c r="C31" s="56"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="51"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="38"/>
+      <c r="I31" s="37"/>
+      <c r="J31" s="37"/>
+      <c r="K31" s="37"/>
+      <c r="L31" s="37"/>
+      <c r="M31" s="37"/>
+      <c r="N31" s="37"/>
+      <c r="O31" s="37"/>
+      <c r="P31" s="37"/>
+      <c r="Q31" s="37"/>
+      <c r="R31" s="37"/>
+      <c r="S31" s="22"/>
+      <c r="T31" s="18"/>
     </row>
     <row r="32" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="22"/>
-      <c r="B32" s="23"/>
-      <c r="C32" s="24"/>
-      <c r="D32" s="24"/>
-      <c r="E32" s="58"/>
-      <c r="F32" s="23"/>
-      <c r="G32" s="42" t="s">
-        <v>48</v>
-      </c>
-      <c r="H32" s="43" t="s">
-        <v>53</v>
-      </c>
-      <c r="I32" s="43"/>
-      <c r="J32" s="43"/>
-      <c r="K32" s="43"/>
-      <c r="L32" s="43"/>
-      <c r="M32" s="43"/>
-      <c r="N32" s="43"/>
-      <c r="O32" s="43"/>
-      <c r="P32" s="43"/>
-      <c r="Q32" s="43"/>
-      <c r="R32" s="43"/>
-      <c r="S32" s="23"/>
-      <c r="T32" s="19"/>
+      <c r="A32" s="21"/>
+      <c r="B32" s="22"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="51"/>
+      <c r="F32" s="22"/>
+      <c r="G32" s="39"/>
+      <c r="H32" s="60"/>
+      <c r="I32" s="60"/>
+      <c r="J32" s="60"/>
+      <c r="K32" s="60"/>
+      <c r="L32" s="60"/>
+      <c r="M32" s="60"/>
+      <c r="N32" s="60"/>
+      <c r="O32" s="60"/>
+      <c r="P32" s="60"/>
+      <c r="Q32" s="60"/>
+      <c r="R32" s="60"/>
+      <c r="S32" s="22"/>
+      <c r="T32" s="18"/>
     </row>
     <row r="33" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="22"/>
+      <c r="A33" s="21"/>
       <c r="B33" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C33" s="10" t="s">
+      <c r="C33" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D33" s="10"/>
-      <c r="E33" s="58"/>
-      <c r="F33" s="23"/>
-      <c r="G33" s="42"/>
-      <c r="H33" s="43"/>
-      <c r="I33" s="43"/>
-      <c r="J33" s="43"/>
-      <c r="K33" s="43"/>
-      <c r="L33" s="43"/>
-      <c r="M33" s="43"/>
-      <c r="N33" s="43"/>
-      <c r="O33" s="43"/>
-      <c r="P33" s="43"/>
-      <c r="Q33" s="43"/>
-      <c r="R33" s="43"/>
-      <c r="S33" s="60"/>
-      <c r="T33" s="19"/>
-    </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A34" s="22"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="51"/>
+      <c r="F33" s="22"/>
+      <c r="G33" s="39"/>
+      <c r="H33" s="53"/>
+      <c r="I33" s="53"/>
+      <c r="J33" s="53"/>
+      <c r="K33" s="53"/>
+      <c r="L33" s="53"/>
+      <c r="M33" s="53"/>
+      <c r="N33" s="53"/>
+      <c r="O33" s="53"/>
+      <c r="P33" s="53"/>
+      <c r="Q33" s="53"/>
+      <c r="R33" s="53"/>
+      <c r="S33" s="53"/>
+      <c r="T33" s="18"/>
+    </row>
+    <row r="34" spans="1:20" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="21"/>
       <c r="B34" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C34" s="10">
+      <c r="C34" s="9">
         <v>6</v>
       </c>
-      <c r="D34" s="10"/>
-      <c r="E34" s="58"/>
-      <c r="F34" s="23"/>
-      <c r="G34" s="42" t="s">
+      <c r="D34" s="9"/>
+      <c r="E34" s="51"/>
+      <c r="F34" s="22"/>
+      <c r="G34" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="H34" s="43"/>
-      <c r="I34" s="43"/>
-      <c r="J34" s="43"/>
-      <c r="K34" s="43"/>
-      <c r="L34" s="43"/>
-      <c r="M34" s="43"/>
-      <c r="N34" s="43"/>
-      <c r="O34" s="43"/>
-      <c r="P34" s="43"/>
-      <c r="Q34" s="43"/>
-      <c r="R34" s="43"/>
-      <c r="S34" s="60"/>
-      <c r="T34" s="19"/>
-    </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A35" s="22"/>
+      <c r="H34" s="62" t="s">
+        <v>53</v>
+      </c>
+      <c r="I34" s="62"/>
+      <c r="J34" s="62"/>
+      <c r="K34" s="62"/>
+      <c r="L34" s="62"/>
+      <c r="M34" s="62"/>
+      <c r="N34" s="62"/>
+      <c r="O34" s="62"/>
+      <c r="P34" s="62"/>
+      <c r="Q34" s="62"/>
+      <c r="R34" s="62"/>
+      <c r="S34" s="53"/>
+      <c r="T34" s="18"/>
+    </row>
+    <row r="35" spans="1:20" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="21"/>
       <c r="B35" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C35" s="10">
+      <c r="C35" s="9">
         <v>500</v>
       </c>
-      <c r="D35" s="10"/>
-      <c r="E35" s="58"/>
-      <c r="F35" s="23"/>
-      <c r="G35" s="42"/>
-      <c r="H35" s="43"/>
-      <c r="I35" s="43"/>
-      <c r="J35" s="43"/>
-      <c r="K35" s="43"/>
-      <c r="L35" s="43"/>
-      <c r="M35" s="43"/>
-      <c r="N35" s="43"/>
-      <c r="O35" s="43"/>
-      <c r="P35" s="43"/>
-      <c r="Q35" s="43"/>
-      <c r="R35" s="43"/>
-      <c r="S35" s="60"/>
-      <c r="T35" s="19"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="51"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="39"/>
+      <c r="H35" s="62"/>
+      <c r="I35" s="62"/>
+      <c r="J35" s="62"/>
+      <c r="K35" s="62"/>
+      <c r="L35" s="62"/>
+      <c r="M35" s="62"/>
+      <c r="N35" s="62"/>
+      <c r="O35" s="62"/>
+      <c r="P35" s="62"/>
+      <c r="Q35" s="62"/>
+      <c r="R35" s="62"/>
+      <c r="S35" s="53"/>
+      <c r="T35" s="18"/>
     </row>
     <row r="36" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="22"/>
+      <c r="A36" s="21"/>
       <c r="B36" s="6"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="58"/>
-      <c r="F36" s="23"/>
-      <c r="G36" s="42"/>
-      <c r="H36" s="43"/>
-      <c r="I36" s="43"/>
-      <c r="J36" s="43"/>
-      <c r="K36" s="43"/>
-      <c r="L36" s="43"/>
-      <c r="M36" s="43"/>
-      <c r="N36" s="43"/>
-      <c r="O36" s="43"/>
-      <c r="P36" s="43"/>
-      <c r="Q36" s="43"/>
-      <c r="R36" s="43"/>
-      <c r="S36" s="60"/>
-      <c r="T36" s="19"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="51"/>
+      <c r="F36" s="22"/>
+      <c r="G36" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="H36" s="62"/>
+      <c r="I36" s="62"/>
+      <c r="J36" s="62"/>
+      <c r="K36" s="62"/>
+      <c r="L36" s="62"/>
+      <c r="M36" s="62"/>
+      <c r="N36" s="62"/>
+      <c r="O36" s="62"/>
+      <c r="P36" s="62"/>
+      <c r="Q36" s="62"/>
+      <c r="R36" s="62"/>
+      <c r="S36" s="53"/>
+      <c r="T36" s="18"/>
     </row>
     <row r="37" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="22"/>
-      <c r="B37" s="50" t="s">
+      <c r="A37" s="21"/>
+      <c r="B37" s="56" t="s">
         <v>45</v>
       </c>
-      <c r="C37" s="50"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="58"/>
-      <c r="F37" s="23"/>
-      <c r="G37" s="42"/>
-      <c r="H37" s="43"/>
-      <c r="I37" s="43"/>
-      <c r="J37" s="43"/>
-      <c r="K37" s="43"/>
-      <c r="L37" s="43"/>
-      <c r="M37" s="43"/>
-      <c r="N37" s="43"/>
-      <c r="O37" s="43"/>
-      <c r="P37" s="43"/>
-      <c r="Q37" s="43"/>
-      <c r="R37" s="43"/>
-      <c r="S37" s="60"/>
-      <c r="T37" s="19"/>
-    </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A38" s="22"/>
-      <c r="B38" s="7"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="58"/>
-      <c r="F38" s="23"/>
-      <c r="G38" s="42"/>
-      <c r="H38" s="60"/>
-      <c r="I38" s="60"/>
-      <c r="J38" s="60"/>
-      <c r="K38" s="60"/>
-      <c r="L38" s="60"/>
-      <c r="M38" s="60"/>
-      <c r="N38" s="60"/>
-      <c r="O38" s="60"/>
-      <c r="P38" s="60"/>
-      <c r="Q38" s="60"/>
-      <c r="R38" s="60"/>
-      <c r="S38" s="60"/>
-      <c r="T38" s="19"/>
-    </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A39" s="22"/>
+      <c r="C37" s="56"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="51"/>
+      <c r="F37" s="22"/>
+      <c r="G37" s="39"/>
+      <c r="H37" s="62"/>
+      <c r="I37" s="62"/>
+      <c r="J37" s="62"/>
+      <c r="K37" s="62"/>
+      <c r="L37" s="62"/>
+      <c r="M37" s="62"/>
+      <c r="N37" s="62"/>
+      <c r="O37" s="62"/>
+      <c r="P37" s="62"/>
+      <c r="Q37" s="62"/>
+      <c r="R37" s="62"/>
+      <c r="S37" s="53"/>
+      <c r="T37" s="18"/>
+    </row>
+    <row r="38" spans="1:20" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="21"/>
+      <c r="B38" s="55"/>
+      <c r="C38" s="55"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="51"/>
+      <c r="F38" s="22"/>
+      <c r="G38" s="39"/>
+      <c r="H38" s="62"/>
+      <c r="I38" s="62"/>
+      <c r="J38" s="62"/>
+      <c r="K38" s="62"/>
+      <c r="L38" s="62"/>
+      <c r="M38" s="62"/>
+      <c r="N38" s="62"/>
+      <c r="O38" s="62"/>
+      <c r="P38" s="62"/>
+      <c r="Q38" s="62"/>
+      <c r="R38" s="62"/>
+      <c r="S38" s="53"/>
+      <c r="T38" s="18"/>
+    </row>
+    <row r="39" spans="1:20" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="21"/>
       <c r="B39" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C39" s="10">
+      <c r="C39" s="9">
         <v>570</v>
       </c>
-      <c r="D39" s="10"/>
-      <c r="E39" s="58"/>
-      <c r="F39" s="23"/>
-      <c r="G39" s="44"/>
-      <c r="H39" s="64" t="s">
-        <v>71</v>
-      </c>
-      <c r="I39" s="63"/>
-      <c r="J39" s="63"/>
-      <c r="K39" s="63"/>
-      <c r="L39" s="63"/>
-      <c r="M39" s="63"/>
-      <c r="N39" s="63"/>
-      <c r="O39" s="63"/>
-      <c r="P39" s="60"/>
-      <c r="Q39" s="60"/>
-      <c r="R39" s="60"/>
-      <c r="S39" s="60"/>
-      <c r="T39" s="19"/>
-    </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A40" s="22"/>
-      <c r="B40" s="10" t="s">
+      <c r="D39" s="9"/>
+      <c r="E39" s="51"/>
+      <c r="F39" s="22"/>
+      <c r="G39" s="40"/>
+      <c r="H39" s="62"/>
+      <c r="I39" s="62"/>
+      <c r="J39" s="62"/>
+      <c r="K39" s="62"/>
+      <c r="L39" s="62"/>
+      <c r="M39" s="62"/>
+      <c r="N39" s="62"/>
+      <c r="O39" s="62"/>
+      <c r="P39" s="62"/>
+      <c r="Q39" s="62"/>
+      <c r="R39" s="62"/>
+      <c r="S39" s="53"/>
+      <c r="T39" s="18"/>
+    </row>
+    <row r="40" spans="1:20" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="21"/>
+      <c r="B40" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C40" s="10">
+      <c r="C40" s="9">
         <v>5</v>
       </c>
-      <c r="D40" s="10"/>
-      <c r="E40" s="58"/>
-      <c r="F40" s="23"/>
-      <c r="G40" s="44"/>
-      <c r="H40" s="63"/>
-      <c r="I40" s="63"/>
-      <c r="J40" s="63"/>
-      <c r="K40" s="63"/>
-      <c r="L40" s="63"/>
-      <c r="M40" s="63"/>
-      <c r="N40" s="63"/>
-      <c r="O40" s="63"/>
-      <c r="P40" s="60"/>
-      <c r="Q40" s="60"/>
-      <c r="R40" s="60"/>
-      <c r="S40" s="60"/>
-      <c r="T40" s="19"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="51"/>
+      <c r="F40" s="22"/>
+      <c r="G40" s="40"/>
+      <c r="H40" s="62"/>
+      <c r="I40" s="62"/>
+      <c r="J40" s="62"/>
+      <c r="K40" s="62"/>
+      <c r="L40" s="62"/>
+      <c r="M40" s="62"/>
+      <c r="N40" s="62"/>
+      <c r="O40" s="62"/>
+      <c r="P40" s="62"/>
+      <c r="Q40" s="62"/>
+      <c r="R40" s="62"/>
+      <c r="S40" s="53"/>
+      <c r="T40" s="18"/>
     </row>
     <row r="41" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="22"/>
-      <c r="B41" s="10"/>
-      <c r="C41" s="10"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="56"/>
+      <c r="A41" s="21"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="49"/>
       <c r="F41" s="6"/>
-      <c r="G41" s="44"/>
-      <c r="H41" s="63"/>
-      <c r="I41" s="63"/>
-      <c r="J41" s="63"/>
-      <c r="K41" s="63"/>
-      <c r="L41" s="63"/>
-      <c r="M41" s="63"/>
-      <c r="N41" s="63"/>
-      <c r="O41" s="63"/>
-      <c r="P41" s="60"/>
-      <c r="Q41" s="60"/>
-      <c r="R41" s="60"/>
-      <c r="S41" s="60"/>
-      <c r="T41" s="19"/>
+      <c r="G41" s="40"/>
+      <c r="H41" s="62"/>
+      <c r="I41" s="62"/>
+      <c r="J41" s="62"/>
+      <c r="K41" s="62"/>
+      <c r="L41" s="62"/>
+      <c r="M41" s="62"/>
+      <c r="N41" s="62"/>
+      <c r="O41" s="62"/>
+      <c r="P41" s="62"/>
+      <c r="Q41" s="62"/>
+      <c r="R41" s="62"/>
+      <c r="S41" s="53"/>
+      <c r="T41" s="18"/>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A42" s="45"/>
-      <c r="B42" s="46"/>
-      <c r="C42" s="47"/>
-      <c r="D42" s="47"/>
-      <c r="E42" s="59"/>
-      <c r="F42" s="21"/>
-      <c r="G42" s="46"/>
-      <c r="H42" s="46"/>
-      <c r="I42" s="46"/>
-      <c r="J42" s="46"/>
-      <c r="K42" s="46"/>
-      <c r="L42" s="46"/>
-      <c r="M42" s="46"/>
-      <c r="N42" s="46"/>
-      <c r="O42" s="46"/>
-      <c r="P42" s="46"/>
-      <c r="Q42" s="46"/>
-      <c r="R42" s="46"/>
-      <c r="S42" s="47"/>
-      <c r="T42" s="48"/>
+      <c r="A42" s="41"/>
+      <c r="B42" s="42"/>
+      <c r="C42" s="43"/>
+      <c r="D42" s="43"/>
+      <c r="E42" s="52"/>
+      <c r="F42" s="20"/>
+      <c r="G42" s="42"/>
+      <c r="H42" s="42"/>
+      <c r="I42" s="42"/>
+      <c r="J42" s="42"/>
+      <c r="K42" s="42"/>
+      <c r="L42" s="42"/>
+      <c r="M42" s="42"/>
+      <c r="N42" s="42"/>
+      <c r="O42" s="42"/>
+      <c r="P42" s="42"/>
+      <c r="Q42" s="42"/>
+      <c r="R42" s="42"/>
+      <c r="S42" s="43"/>
+      <c r="T42" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="H32:R37"/>
-    <mergeCell ref="H39:O41"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="A1:T1"/>
+    <mergeCell ref="H34:R41"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="G2:S2"/>
     <mergeCell ref="B3:C3"/>
@@ -2315,7 +2310,6 @@
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B31:C31"/>
   </mergeCells>
   <dataValidations disablePrompts="1" xWindow="413" yWindow="673" count="3">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="STOP!_x000a__x000a_Use button to return to Input Worksheet." sqref="C18:D21 C39:D41 C36:D36 C33:D33 C29:D29 C25:D27" xr:uid="{00000000-0002-0000-0000-000000000000}"/>

--- a/src/component/data/01062021 TxCRCP-ME Analysis Result Sheet.xlsx
+++ b/src/component/data/01062021 TxCRCP-ME Analysis Result Sheet.xlsx
@@ -8,40 +8,40 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\STORE\nvtngan\project\github\txDoT\src\component\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A3C54D3-AA11-4374-AAD2-D23C0D9EBCF9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F05F0AC9-15AD-4060-A94C-21627F841B93}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4764" yWindow="828" windowWidth="17280" windowHeight="11532" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Result" sheetId="1" r:id="rId1"/>
     <sheet name="Analysis Result" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="AnalysisPunchouts">Result!$S$7</definedName>
-    <definedName name="AnalysisSlabThickness">Result!$S$6</definedName>
-    <definedName name="BaseThickness">Result!$C$34</definedName>
-    <definedName name="BaseType">Result!$C$33</definedName>
-    <definedName name="CompositeK">Result!$C$36</definedName>
-    <definedName name="County">Result!$C$7</definedName>
-    <definedName name="CSJ">Result!$C$9</definedName>
-    <definedName name="DesignLife">Result!$C$18</definedName>
-    <definedName name="District">Result!$C$6</definedName>
-    <definedName name="ElasticModulue">Result!$C$40</definedName>
-    <definedName name="Highway">Result!$C$8</definedName>
-    <definedName name="LanesOneDirection">Result!$C$20</definedName>
-    <definedName name="ModulusBase">Result!$C$35</definedName>
-    <definedName name="ModulusOfRupture">Result!$C$39</definedName>
-    <definedName name="PlasticityIndex">Result!$C$27</definedName>
-    <definedName name="ProjectScope">Result!$C$10</definedName>
-    <definedName name="PunchoutsPerMile">Result!$C$19</definedName>
-    <definedName name="SlabThickness">Result!$S$6</definedName>
-    <definedName name="SoilClassificationSystem">Result!$C$25</definedName>
-    <definedName name="SoilSub">Result!$C$26</definedName>
-    <definedName name="StationBegin">Result!$C$11</definedName>
-    <definedName name="StationEnd">Result!$C$12</definedName>
-    <definedName name="SubbaseThickness">Result!$C$29</definedName>
-    <definedName name="SubbaseType">Result!$C$28</definedName>
-    <definedName name="TrafficOneDirection">Result!$C$21</definedName>
+    <definedName name="AnalysisPunchouts">Result!$S$8</definedName>
+    <definedName name="AnalysisSlabThickness">Result!$S$7</definedName>
+    <definedName name="BaseThickness">Result!$C$43</definedName>
+    <definedName name="BaseType">Result!$C$42</definedName>
+    <definedName name="CompositeK">Result!$C$45</definedName>
+    <definedName name="County">Result!$C$8</definedName>
+    <definedName name="CSJ">Result!$C$10</definedName>
+    <definedName name="DesignLife">Result!$C$27</definedName>
+    <definedName name="District">Result!$C$7</definedName>
+    <definedName name="ElasticModulue">Result!$C$49</definedName>
+    <definedName name="Highway">Result!$C$9</definedName>
+    <definedName name="LanesOneDirection">Result!$C$29</definedName>
+    <definedName name="ModulusBase">Result!$C$44</definedName>
+    <definedName name="ModulusOfRupture">Result!$C$48</definedName>
+    <definedName name="PlasticityIndex">Result!$C$36</definedName>
+    <definedName name="ProjectScope">Result!$C$11</definedName>
+    <definedName name="PunchoutsPerMile">Result!$C$28</definedName>
+    <definedName name="SlabThickness">Result!$S$7</definedName>
+    <definedName name="SoilClassificationSystem">Result!$C$34</definedName>
+    <definedName name="SoilSub">Result!$C$35</definedName>
+    <definedName name="StationBegin">Result!$C$15</definedName>
+    <definedName name="StationEnd">Result!$C$16</definedName>
+    <definedName name="SubbaseThickness">Result!$C$38</definedName>
+    <definedName name="SubbaseType">Result!$C$37</definedName>
+    <definedName name="TrafficOneDirection">Result!$C$30</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="77">
   <si>
     <t xml:space="preserve"> INPUT DATA</t>
   </si>
@@ -86,12 +86,6 @@
   </si>
   <si>
     <t>0196-02-126</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Station (Begin)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Station (End)</t>
   </si>
   <si>
     <t xml:space="preserve"> Soil Classification System</t>
@@ -302,6 +296,27 @@
   </si>
   <si>
     <t>TxCRCP-ME Analysis</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Project Limits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     From</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     To</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Sta. (End)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Sta. (Begin)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     RM. (Begin)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     RM. (End)</t>
   </si>
 </sst>
 </file>
@@ -460,7 +475,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -576,11 +591,29 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF141E36"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="3"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -725,33 +758,52 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -785,7 +837,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>3051</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>213093</xdr:rowOff>
     </xdr:to>
@@ -1180,10 +1232,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V42"/>
+  <dimension ref="A1:V51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="70" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="W34" sqref="W34"/>
+    <sheetView tabSelected="1" zoomScale="63" zoomScaleNormal="118" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -1203,358 +1255,354 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="59" t="s">
-        <v>71</v>
-      </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="58"/>
-      <c r="N1" s="58"/>
-      <c r="O1" s="58"/>
-      <c r="P1" s="58"/>
-      <c r="Q1" s="58"/>
-      <c r="R1" s="58"/>
-      <c r="S1" s="58"/>
-      <c r="T1" s="58"/>
-    </row>
-    <row r="2" spans="1:22" ht="18.600000000000001" x14ac:dyDescent="0.3">
-      <c r="A2" s="21"/>
-      <c r="B2" s="54" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="54"/>
-      <c r="D2" s="46"/>
+      <c r="A1" s="56" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="57"/>
+      <c r="N1" s="57"/>
+      <c r="O1" s="57"/>
+      <c r="P1" s="57"/>
+      <c r="Q1" s="57"/>
+      <c r="R1" s="57"/>
+      <c r="S1" s="57"/>
+      <c r="T1" s="57"/>
+      <c r="U1" s="69"/>
+    </row>
+    <row r="2" spans="1:22" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="65"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="68"/>
       <c r="E2" s="48"/>
       <c r="F2" s="47"/>
-      <c r="G2" s="54" t="s">
-        <v>29</v>
-      </c>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="54"/>
-      <c r="L2" s="54"/>
-      <c r="M2" s="54"/>
-      <c r="N2" s="54"/>
-      <c r="O2" s="54"/>
-      <c r="P2" s="54"/>
-      <c r="Q2" s="54"/>
-      <c r="R2" s="54"/>
-      <c r="S2" s="54"/>
-      <c r="T2" s="18"/>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="66"/>
+      <c r="J2" s="66"/>
+      <c r="K2" s="66"/>
+      <c r="L2" s="66"/>
+      <c r="M2" s="66"/>
+      <c r="N2" s="66"/>
+      <c r="O2" s="66"/>
+      <c r="P2" s="66"/>
+      <c r="Q2" s="66"/>
+      <c r="R2" s="66"/>
+      <c r="S2" s="66"/>
+      <c r="T2" s="67"/>
+      <c r="U2" s="69"/>
+    </row>
+    <row r="3" spans="1:22" ht="18.600000000000001" x14ac:dyDescent="0.3">
       <c r="A3" s="21"/>
-      <c r="B3" s="55"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="55"/>
-      <c r="L3" s="55"/>
-      <c r="M3" s="55"/>
-      <c r="N3" s="55"/>
-      <c r="O3" s="55"/>
-      <c r="P3" s="55"/>
-      <c r="Q3" s="55"/>
-      <c r="R3" s="55"/>
-      <c r="S3" s="55"/>
+      <c r="B3" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="59"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="59" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="59"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="59"/>
+      <c r="L3" s="59"/>
+      <c r="M3" s="59"/>
+      <c r="N3" s="59"/>
+      <c r="O3" s="59"/>
+      <c r="P3" s="59"/>
+      <c r="Q3" s="59"/>
+      <c r="R3" s="59"/>
+      <c r="S3" s="59"/>
       <c r="T3" s="18"/>
     </row>
-    <row r="4" spans="1:22" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" s="21"/>
-      <c r="B4" s="56" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="56"/>
-      <c r="D4" s="8"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="7"/>
       <c r="E4" s="49"/>
       <c r="F4" s="6"/>
-      <c r="G4" s="57" t="s">
-        <v>47</v>
-      </c>
-      <c r="H4" s="57"/>
-      <c r="I4" s="57"/>
-      <c r="J4" s="57"/>
-      <c r="K4" s="57"/>
-      <c r="L4" s="57"/>
-      <c r="M4" s="57"/>
-      <c r="N4" s="57"/>
-      <c r="O4" s="57"/>
-      <c r="P4" s="57"/>
-      <c r="Q4" s="57"/>
-      <c r="R4" s="57"/>
-      <c r="S4" s="57"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="60"/>
+      <c r="I4" s="60"/>
+      <c r="J4" s="60"/>
+      <c r="K4" s="60"/>
+      <c r="L4" s="60"/>
+      <c r="M4" s="60"/>
+      <c r="N4" s="60"/>
+      <c r="O4" s="60"/>
+      <c r="P4" s="60"/>
+      <c r="Q4" s="60"/>
+      <c r="R4" s="60"/>
+      <c r="S4" s="60"/>
       <c r="T4" s="18"/>
-      <c r="V4" s="61"/>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:22" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A5" s="21"/>
-      <c r="B5" s="55"/>
+      <c r="B5" s="55" t="s">
+        <v>1</v>
+      </c>
       <c r="C5" s="55"/>
-      <c r="D5" s="7"/>
+      <c r="D5" s="8"/>
       <c r="E5" s="49"/>
       <c r="F5" s="6"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="55"/>
-      <c r="I5" s="55"/>
-      <c r="J5" s="55"/>
-      <c r="K5" s="55"/>
-      <c r="L5" s="55"/>
-      <c r="M5" s="55"/>
-      <c r="N5" s="55"/>
-      <c r="O5" s="55"/>
-      <c r="P5" s="55"/>
-      <c r="Q5" s="55"/>
-      <c r="R5" s="55"/>
-      <c r="S5" s="55"/>
+      <c r="G5" s="61" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" s="61"/>
+      <c r="I5" s="61"/>
+      <c r="J5" s="61"/>
+      <c r="K5" s="61"/>
+      <c r="L5" s="61"/>
+      <c r="M5" s="61"/>
+      <c r="N5" s="61"/>
+      <c r="O5" s="61"/>
+      <c r="P5" s="61"/>
+      <c r="Q5" s="61"/>
+      <c r="R5" s="61"/>
+      <c r="S5" s="61"/>
       <c r="T5" s="18"/>
+      <c r="V5" s="54"/>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" s="21"/>
-      <c r="B6" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="9"/>
+      <c r="B6" s="60"/>
+      <c r="C6" s="60"/>
+      <c r="D6" s="7"/>
       <c r="E6" s="49"/>
       <c r="F6" s="6"/>
-      <c r="G6" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9"/>
-      <c r="P6" s="9"/>
-      <c r="Q6" s="9"/>
-      <c r="R6" s="9"/>
-      <c r="S6" s="11">
-        <v>13</v>
-      </c>
+      <c r="G6" s="60"/>
+      <c r="H6" s="60"/>
+      <c r="I6" s="60"/>
+      <c r="J6" s="60"/>
+      <c r="K6" s="60"/>
+      <c r="L6" s="60"/>
+      <c r="M6" s="60"/>
+      <c r="N6" s="60"/>
+      <c r="O6" s="60"/>
+      <c r="P6" s="60"/>
+      <c r="Q6" s="60"/>
+      <c r="R6" s="60"/>
+      <c r="S6" s="60"/>
       <c r="T6" s="18"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" s="21"/>
       <c r="B7" s="6" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="49"/>
       <c r="F7" s="6"/>
-      <c r="G7" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="13"/>
-      <c r="P7" s="13"/>
-      <c r="Q7" s="13"/>
-      <c r="R7" s="13"/>
-      <c r="S7" s="14">
-        <v>8.8401751229188417</v>
+      <c r="G7" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="9"/>
+      <c r="S7" s="11">
+        <v>13</v>
       </c>
       <c r="T7" s="18"/>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8" s="21"/>
       <c r="B8" s="6" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D8" s="9"/>
       <c r="E8" s="49"/>
       <c r="F8" s="6"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="22"/>
-      <c r="K8" s="22"/>
-      <c r="L8" s="22"/>
-      <c r="M8" s="22"/>
-      <c r="N8" s="22"/>
-      <c r="O8" s="22"/>
-      <c r="P8" s="22"/>
-      <c r="Q8" s="22"/>
-      <c r="R8" s="22"/>
-      <c r="S8" s="23"/>
+      <c r="G8" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="13"/>
+      <c r="P8" s="13"/>
+      <c r="Q8" s="13"/>
+      <c r="R8" s="13"/>
+      <c r="S8" s="14">
+        <v>8.8401751229188417</v>
+      </c>
       <c r="T8" s="18"/>
     </row>
-    <row r="9" spans="1:22" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9" s="21"/>
       <c r="B9" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D9" s="9"/>
       <c r="E9" s="49"/>
       <c r="F9" s="6"/>
-      <c r="G9" s="57" t="s">
-        <v>46</v>
-      </c>
-      <c r="H9" s="57"/>
-      <c r="I9" s="57"/>
-      <c r="J9" s="57"/>
-      <c r="K9" s="57"/>
-      <c r="L9" s="57"/>
-      <c r="M9" s="57"/>
-      <c r="N9" s="57"/>
-      <c r="O9" s="57"/>
-      <c r="P9" s="57"/>
-      <c r="Q9" s="57"/>
-      <c r="R9" s="57"/>
-      <c r="S9" s="57"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="22"/>
+      <c r="N9" s="22"/>
+      <c r="O9" s="22"/>
+      <c r="P9" s="22"/>
+      <c r="Q9" s="22"/>
+      <c r="R9" s="22"/>
+      <c r="S9" s="23"/>
       <c r="T9" s="18"/>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A10" s="21"/>
       <c r="B10" s="6" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="49"/>
       <c r="F10" s="6"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="15"/>
-      <c r="N10" s="15"/>
-      <c r="O10" s="15"/>
-      <c r="P10" s="15"/>
-      <c r="Q10" s="15"/>
-      <c r="R10" s="15"/>
-      <c r="S10" s="15"/>
+      <c r="G10" s="61" t="s">
+        <v>44</v>
+      </c>
+      <c r="H10" s="61"/>
+      <c r="I10" s="61"/>
+      <c r="J10" s="61"/>
+      <c r="K10" s="61"/>
+      <c r="L10" s="61"/>
+      <c r="M10" s="61"/>
+      <c r="N10" s="61"/>
+      <c r="O10" s="61"/>
+      <c r="P10" s="61"/>
+      <c r="Q10" s="61"/>
+      <c r="R10" s="61"/>
+      <c r="S10" s="61"/>
       <c r="T10" s="18"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11" s="21"/>
       <c r="B11" s="6" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="D11" s="9"/>
       <c r="E11" s="49"/>
       <c r="F11" s="6"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="27"/>
-      <c r="L11" s="27"/>
-      <c r="M11" s="27"/>
-      <c r="N11" s="27"/>
-      <c r="O11" s="27"/>
-      <c r="P11" s="27"/>
-      <c r="Q11" s="27"/>
-      <c r="R11" s="27"/>
-      <c r="S11" s="24"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="15"/>
+      <c r="P11" s="15"/>
+      <c r="Q11" s="15"/>
+      <c r="R11" s="15"/>
+      <c r="S11" s="15"/>
       <c r="T11" s="18"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12" s="21"/>
-      <c r="B12" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>28</v>
-      </c>
+      <c r="B12" s="64" t="s">
+        <v>70</v>
+      </c>
+      <c r="C12" s="64"/>
       <c r="D12" s="9"/>
       <c r="E12" s="49"/>
       <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="J12" s="28"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="M12" s="30"/>
-      <c r="N12" s="30"/>
-      <c r="O12" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="P12" s="30"/>
-      <c r="Q12" s="30"/>
-      <c r="R12" s="30"/>
-      <c r="S12" s="22"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="27"/>
+      <c r="M12" s="27"/>
+      <c r="N12" s="27"/>
+      <c r="O12" s="27"/>
+      <c r="P12" s="27"/>
+      <c r="Q12" s="27"/>
+      <c r="R12" s="27"/>
+      <c r="S12" s="15"/>
       <c r="T12" s="18"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13" s="21"/>
       <c r="B13" s="6" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
       <c r="E13" s="49"/>
       <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
+      <c r="G13" s="15"/>
       <c r="H13" s="28"/>
-      <c r="I13" s="28"/>
+      <c r="I13" s="29" t="s">
+        <v>29</v>
+      </c>
       <c r="J13" s="28"/>
       <c r="K13" s="28"/>
-      <c r="L13" s="28"/>
+      <c r="L13" s="28" t="s">
+        <v>31</v>
+      </c>
       <c r="M13" s="30"/>
       <c r="N13" s="30"/>
-      <c r="O13" s="28"/>
+      <c r="O13" s="28" t="s">
+        <v>35</v>
+      </c>
       <c r="P13" s="30"/>
       <c r="Q13" s="30"/>
       <c r="R13" s="30"/>
-      <c r="S13" s="22"/>
+      <c r="S13" s="15"/>
       <c r="T13" s="18"/>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A14" s="21"/>
       <c r="B14" s="6" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
       <c r="E14" s="49"/>
       <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
+      <c r="G14" s="15"/>
       <c r="H14" s="28"/>
       <c r="I14" s="28"/>
       <c r="J14" s="28"/>
@@ -1566,38 +1614,44 @@
       <c r="P14" s="30"/>
       <c r="Q14" s="30"/>
       <c r="R14" s="30"/>
-      <c r="S14" s="22"/>
+      <c r="S14" s="15"/>
       <c r="T14" s="18"/>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15" s="21"/>
-      <c r="B15" s="22"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
+      <c r="B15" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="9"/>
       <c r="E15" s="49"/>
       <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
+      <c r="G15" s="24"/>
       <c r="H15" s="28"/>
       <c r="I15" s="28"/>
       <c r="J15" s="28"/>
       <c r="K15" s="28"/>
-      <c r="L15" s="30"/>
+      <c r="L15" s="28"/>
       <c r="M15" s="30"/>
       <c r="N15" s="30"/>
       <c r="O15" s="28"/>
       <c r="P15" s="30"/>
       <c r="Q15" s="30"/>
       <c r="R15" s="30"/>
-      <c r="S15" s="22"/>
+      <c r="S15" s="24"/>
       <c r="T15" s="18"/>
     </row>
-    <row r="16" spans="1:22" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16" s="21"/>
-      <c r="B16" s="56" t="s">
+      <c r="B16" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C16" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="56"/>
-      <c r="D16" s="8"/>
+      <c r="D16" s="9"/>
       <c r="E16" s="49"/>
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
@@ -1605,9 +1659,9 @@
       <c r="I16" s="28"/>
       <c r="J16" s="28"/>
       <c r="K16" s="28"/>
-      <c r="L16" s="28"/>
-      <c r="M16" s="28"/>
-      <c r="N16" s="28"/>
+      <c r="L16" s="30"/>
+      <c r="M16" s="30"/>
+      <c r="N16" s="30"/>
       <c r="O16" s="28"/>
       <c r="P16" s="30"/>
       <c r="Q16" s="30"/>
@@ -1615,139 +1669,121 @@
       <c r="S16" s="22"/>
       <c r="T16" s="18"/>
     </row>
-    <row r="17" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A17" s="21"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
+      <c r="B17" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
       <c r="E17" s="49"/>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
-      <c r="H17" s="31"/>
-      <c r="I17" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="J17" s="32"/>
-      <c r="K17" s="32"/>
-      <c r="L17" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="M17" s="32"/>
-      <c r="N17" s="32"/>
-      <c r="O17" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="P17" s="32"/>
-      <c r="Q17" s="32"/>
-      <c r="R17" s="32"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="28"/>
+      <c r="L17" s="30"/>
+      <c r="M17" s="30"/>
+      <c r="N17" s="30"/>
+      <c r="O17" s="28"/>
+      <c r="P17" s="30"/>
+      <c r="Q17" s="30"/>
+      <c r="R17" s="30"/>
       <c r="S17" s="22"/>
       <c r="T17" s="18"/>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A18" s="21"/>
       <c r="B18" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18" s="9">
-        <v>30</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="C18" s="9"/>
       <c r="D18" s="9"/>
       <c r="E18" s="49"/>
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
-      <c r="H18" s="33"/>
-      <c r="I18" s="33"/>
-      <c r="J18" s="34"/>
-      <c r="K18" s="34"/>
-      <c r="L18" s="35"/>
-      <c r="M18" s="35"/>
-      <c r="N18" s="35"/>
-      <c r="O18" s="34"/>
-      <c r="P18" s="35"/>
-      <c r="Q18" s="35"/>
-      <c r="R18" s="35"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="28"/>
+      <c r="K18" s="28"/>
+      <c r="L18" s="30"/>
+      <c r="M18" s="30"/>
+      <c r="N18" s="30"/>
+      <c r="O18" s="28"/>
+      <c r="P18" s="30"/>
+      <c r="Q18" s="30"/>
+      <c r="R18" s="30"/>
       <c r="S18" s="22"/>
       <c r="T18" s="18"/>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A19" s="21"/>
       <c r="B19" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" s="9">
-        <v>10</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="C19" s="9"/>
       <c r="D19" s="9"/>
       <c r="E19" s="49"/>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
-      <c r="H19" s="34"/>
-      <c r="I19" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="J19" s="34"/>
-      <c r="K19" s="34"/>
-      <c r="L19" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="M19" s="35"/>
-      <c r="N19" s="35"/>
-      <c r="O19" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="P19" s="35"/>
-      <c r="Q19" s="35"/>
-      <c r="R19" s="35"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="28"/>
+      <c r="K19" s="28"/>
+      <c r="L19" s="28"/>
+      <c r="M19" s="28"/>
+      <c r="N19" s="28"/>
+      <c r="O19" s="28"/>
+      <c r="P19" s="30"/>
+      <c r="Q19" s="30"/>
+      <c r="R19" s="30"/>
       <c r="S19" s="22"/>
       <c r="T19" s="18"/>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A20" s="21"/>
       <c r="B20" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C20" s="16">
-        <v>4</v>
-      </c>
-      <c r="D20" s="16"/>
+        <v>50</v>
+      </c>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
       <c r="E20" s="49"/>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
-      <c r="H20" s="34"/>
-      <c r="I20" s="34"/>
-      <c r="J20" s="34"/>
-      <c r="K20" s="34"/>
-      <c r="L20" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="M20" s="35"/>
-      <c r="N20" s="35"/>
-      <c r="O20" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="P20" s="35"/>
-      <c r="Q20" s="35"/>
-      <c r="R20" s="35"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="J20" s="32"/>
+      <c r="K20" s="32"/>
+      <c r="L20" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="M20" s="32"/>
+      <c r="N20" s="32"/>
+      <c r="O20" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="P20" s="32"/>
+      <c r="Q20" s="32"/>
+      <c r="R20" s="32"/>
       <c r="S20" s="22"/>
       <c r="T20" s="18"/>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A21" s="21"/>
-      <c r="B21" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" s="16">
-        <v>106.82599999999999</v>
-      </c>
-      <c r="D21" s="16"/>
+      <c r="B21" s="62"/>
+      <c r="C21" s="62"/>
+      <c r="D21" s="9"/>
       <c r="E21" s="49"/>
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
-      <c r="H21" s="34"/>
-      <c r="I21" s="34"/>
+      <c r="H21" s="33"/>
+      <c r="I21" s="33"/>
       <c r="J21" s="34"/>
       <c r="K21" s="34"/>
-      <c r="L21" s="34"/>
+      <c r="L21" s="35"/>
       <c r="M21" s="35"/>
       <c r="N21" s="35"/>
       <c r="O21" s="34"/>
@@ -1759,96 +1795,92 @@
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A22" s="21"/>
-      <c r="B22" s="55"/>
-      <c r="C22" s="55"/>
-      <c r="D22" s="7"/>
+      <c r="B22" s="62"/>
+      <c r="C22" s="62"/>
+      <c r="D22" s="9"/>
       <c r="E22" s="49"/>
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
-      <c r="H22" s="29"/>
-      <c r="I22" s="29"/>
-      <c r="J22" s="28"/>
-      <c r="K22" s="28"/>
-      <c r="L22" s="30"/>
-      <c r="M22" s="30"/>
-      <c r="N22" s="30"/>
-      <c r="O22" s="28"/>
-      <c r="P22" s="30"/>
-      <c r="Q22" s="30"/>
-      <c r="R22" s="30"/>
+      <c r="H22" s="34"/>
+      <c r="I22" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="J22" s="34"/>
+      <c r="K22" s="34"/>
+      <c r="L22" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="M22" s="35"/>
+      <c r="N22" s="35"/>
+      <c r="O22" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="P22" s="35"/>
+      <c r="Q22" s="35"/>
+      <c r="R22" s="35"/>
       <c r="S22" s="22"/>
       <c r="T22" s="18"/>
     </row>
-    <row r="23" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A23" s="21"/>
-      <c r="B23" s="56" t="s">
-        <v>43</v>
-      </c>
-      <c r="C23" s="56"/>
-      <c r="D23" s="8"/>
+      <c r="B23" s="62"/>
+      <c r="C23" s="62"/>
+      <c r="D23" s="9"/>
       <c r="E23" s="49"/>
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="J23" s="28"/>
-      <c r="K23" s="30"/>
-      <c r="L23" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="M23" s="30"/>
-      <c r="N23" s="30"/>
-      <c r="O23" s="28" t="s">
+      <c r="H23" s="34"/>
+      <c r="I23" s="34"/>
+      <c r="J23" s="34"/>
+      <c r="K23" s="34"/>
+      <c r="L23" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="M23" s="35"/>
+      <c r="N23" s="35"/>
+      <c r="O23" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="P23" s="30"/>
-      <c r="Q23" s="30"/>
-      <c r="R23" s="30"/>
+      <c r="P23" s="35"/>
+      <c r="Q23" s="35"/>
+      <c r="R23" s="35"/>
       <c r="S23" s="22"/>
       <c r="T23" s="18"/>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A24" s="21"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
       <c r="E24" s="49"/>
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
-      <c r="H24" s="28"/>
-      <c r="I24" s="29"/>
-      <c r="J24" s="28"/>
-      <c r="K24" s="28"/>
-      <c r="L24" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="M24" s="30"/>
-      <c r="N24" s="30"/>
-      <c r="O24" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="P24" s="30"/>
-      <c r="Q24" s="30"/>
-      <c r="R24" s="30"/>
+      <c r="H24" s="34"/>
+      <c r="I24" s="34"/>
+      <c r="J24" s="34"/>
+      <c r="K24" s="34"/>
+      <c r="L24" s="34"/>
+      <c r="M24" s="35"/>
+      <c r="N24" s="35"/>
+      <c r="O24" s="34"/>
+      <c r="P24" s="35"/>
+      <c r="Q24" s="35"/>
+      <c r="R24" s="35"/>
       <c r="S24" s="22"/>
       <c r="T24" s="18"/>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A25" s="21"/>
-      <c r="B25" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D25" s="9"/>
+      <c r="B25" s="55" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" s="55"/>
+      <c r="D25" s="8"/>
       <c r="E25" s="49"/>
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
-      <c r="H25" s="28"/>
-      <c r="I25" s="28"/>
+      <c r="H25" s="29"/>
+      <c r="I25" s="29"/>
       <c r="J25" s="28"/>
       <c r="K25" s="28"/>
       <c r="L25" s="30"/>
@@ -1863,24 +1895,26 @@
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A26" s="21"/>
-      <c r="B26" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D26" s="9"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
       <c r="E26" s="49"/>
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
       <c r="H26" s="28"/>
-      <c r="I26" s="28"/>
+      <c r="I26" s="29" t="s">
+        <v>52</v>
+      </c>
       <c r="J26" s="28"/>
-      <c r="K26" s="28"/>
-      <c r="L26" s="28"/>
-      <c r="M26" s="28"/>
-      <c r="N26" s="28"/>
-      <c r="O26" s="28"/>
+      <c r="K26" s="30"/>
+      <c r="L26" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="M26" s="30"/>
+      <c r="N26" s="30"/>
+      <c r="O26" s="28" t="s">
+        <v>32</v>
+      </c>
       <c r="P26" s="30"/>
       <c r="Q26" s="30"/>
       <c r="R26" s="30"/>
@@ -1890,434 +1924,664 @@
     <row r="27" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A27" s="21"/>
       <c r="B27" s="6" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="C27" s="9">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D27" s="9"/>
-      <c r="E27" s="50"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="36"/>
-      <c r="I27" s="36"/>
-      <c r="J27" s="37"/>
-      <c r="K27" s="37"/>
-      <c r="L27" s="37"/>
-      <c r="M27" s="37"/>
-      <c r="N27" s="37"/>
-      <c r="O27" s="38"/>
-      <c r="P27" s="37"/>
-      <c r="Q27" s="37"/>
-      <c r="R27" s="37"/>
+      <c r="E27" s="49"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="28"/>
+      <c r="I27" s="29"/>
+      <c r="J27" s="28"/>
+      <c r="K27" s="28"/>
+      <c r="L27" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="M27" s="30"/>
+      <c r="N27" s="30"/>
+      <c r="O27" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="P27" s="30"/>
+      <c r="Q27" s="30"/>
+      <c r="R27" s="30"/>
       <c r="S27" s="22"/>
       <c r="T27" s="18"/>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A28" s="21"/>
       <c r="B28" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="C28" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="D28" s="23"/>
-      <c r="E28" s="51"/>
-      <c r="F28" s="22"/>
-      <c r="G28" s="22"/>
-      <c r="H28" s="37"/>
-      <c r="I28" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="J28" s="37"/>
-      <c r="K28" s="37"/>
-      <c r="L28" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="M28" s="37"/>
-      <c r="N28" s="37"/>
-      <c r="O28" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="P28" s="37"/>
-      <c r="Q28" s="37"/>
-      <c r="R28" s="37"/>
+        <v>20</v>
+      </c>
+      <c r="C28" s="9">
+        <v>10</v>
+      </c>
+      <c r="D28" s="9"/>
+      <c r="E28" s="49"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="28"/>
+      <c r="I28" s="28"/>
+      <c r="J28" s="28"/>
+      <c r="K28" s="28"/>
+      <c r="L28" s="30"/>
+      <c r="M28" s="30"/>
+      <c r="N28" s="30"/>
+      <c r="O28" s="28"/>
+      <c r="P28" s="30"/>
+      <c r="Q28" s="30"/>
+      <c r="R28" s="30"/>
       <c r="S28" s="22"/>
       <c r="T28" s="18"/>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A29" s="21"/>
       <c r="B29" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="C29" s="9">
-        <v>12</v>
-      </c>
-      <c r="D29" s="9"/>
-      <c r="E29" s="51"/>
-      <c r="F29" s="22"/>
-      <c r="G29" s="22"/>
-      <c r="H29" s="37"/>
-      <c r="I29" s="37"/>
-      <c r="J29" s="37"/>
-      <c r="K29" s="37"/>
-      <c r="L29" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="M29" s="37"/>
-      <c r="N29" s="37"/>
-      <c r="O29" s="38">
-        <v>35</v>
-      </c>
-      <c r="P29" s="37"/>
-      <c r="Q29" s="37"/>
-      <c r="R29" s="37"/>
+        <v>21</v>
+      </c>
+      <c r="C29" s="16">
+        <v>4</v>
+      </c>
+      <c r="D29" s="16"/>
+      <c r="E29" s="49"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="28"/>
+      <c r="I29" s="28"/>
+      <c r="J29" s="28"/>
+      <c r="K29" s="28"/>
+      <c r="L29" s="28"/>
+      <c r="M29" s="28"/>
+      <c r="N29" s="28"/>
+      <c r="O29" s="28"/>
+      <c r="P29" s="30"/>
+      <c r="Q29" s="30"/>
+      <c r="R29" s="30"/>
       <c r="S29" s="22"/>
       <c r="T29" s="18"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A30" s="21"/>
-      <c r="B30" s="22"/>
-      <c r="C30" s="23"/>
-      <c r="D30" s="23"/>
-      <c r="E30" s="51"/>
-      <c r="F30" s="22"/>
-      <c r="G30" s="22"/>
-      <c r="H30" s="38"/>
-      <c r="I30" s="37"/>
+      <c r="B30" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C30" s="16">
+        <v>106.82599999999999</v>
+      </c>
+      <c r="D30" s="16"/>
+      <c r="E30" s="49"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="36"/>
+      <c r="I30" s="36"/>
       <c r="J30" s="37"/>
       <c r="K30" s="37"/>
       <c r="L30" s="37"/>
       <c r="M30" s="37"/>
       <c r="N30" s="37"/>
-      <c r="O30" s="37"/>
+      <c r="O30" s="38"/>
       <c r="P30" s="37"/>
       <c r="Q30" s="37"/>
       <c r="R30" s="37"/>
       <c r="S30" s="22"/>
       <c r="T30" s="18"/>
     </row>
-    <row r="31" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A31" s="21"/>
-      <c r="B31" s="56" t="s">
-        <v>44</v>
-      </c>
-      <c r="C31" s="56"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="51"/>
-      <c r="F31" s="22"/>
-      <c r="G31" s="22"/>
-      <c r="H31" s="38"/>
-      <c r="I31" s="37"/>
+      <c r="B31" s="60"/>
+      <c r="C31" s="60"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="49"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="37"/>
+      <c r="I31" s="36" t="s">
+        <v>28</v>
+      </c>
       <c r="J31" s="37"/>
       <c r="K31" s="37"/>
-      <c r="L31" s="37"/>
+      <c r="L31" s="38" t="s">
+        <v>36</v>
+      </c>
       <c r="M31" s="37"/>
       <c r="N31" s="37"/>
-      <c r="O31" s="37"/>
+      <c r="O31" s="38" t="s">
+        <v>14</v>
+      </c>
       <c r="P31" s="37"/>
       <c r="Q31" s="37"/>
       <c r="R31" s="37"/>
       <c r="S31" s="22"/>
       <c r="T31" s="18"/>
     </row>
-    <row r="32" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A32" s="21"/>
-      <c r="B32" s="22"/>
-      <c r="C32" s="23"/>
-      <c r="D32" s="23"/>
-      <c r="E32" s="51"/>
-      <c r="F32" s="22"/>
-      <c r="G32" s="39"/>
-      <c r="H32" s="60"/>
-      <c r="I32" s="60"/>
-      <c r="J32" s="60"/>
-      <c r="K32" s="60"/>
-      <c r="L32" s="60"/>
-      <c r="M32" s="60"/>
-      <c r="N32" s="60"/>
-      <c r="O32" s="60"/>
-      <c r="P32" s="60"/>
-      <c r="Q32" s="60"/>
-      <c r="R32" s="60"/>
+      <c r="B32" s="55" t="s">
+        <v>41</v>
+      </c>
+      <c r="C32" s="55"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="49"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="37"/>
+      <c r="I32" s="37"/>
+      <c r="J32" s="37"/>
+      <c r="K32" s="37"/>
+      <c r="L32" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="M32" s="37"/>
+      <c r="N32" s="37"/>
+      <c r="O32" s="38">
+        <v>35</v>
+      </c>
+      <c r="P32" s="37"/>
+      <c r="Q32" s="37"/>
+      <c r="R32" s="37"/>
       <c r="S32" s="22"/>
       <c r="T32" s="18"/>
     </row>
-    <row r="33" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A33" s="21"/>
-      <c r="B33" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D33" s="9"/>
-      <c r="E33" s="51"/>
-      <c r="F33" s="22"/>
-      <c r="G33" s="39"/>
-      <c r="H33" s="53"/>
-      <c r="I33" s="53"/>
-      <c r="J33" s="53"/>
-      <c r="K33" s="53"/>
-      <c r="L33" s="53"/>
-      <c r="M33" s="53"/>
-      <c r="N33" s="53"/>
-      <c r="O33" s="53"/>
-      <c r="P33" s="53"/>
-      <c r="Q33" s="53"/>
-      <c r="R33" s="53"/>
-      <c r="S33" s="53"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="49"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="37"/>
+      <c r="I33" s="36"/>
+      <c r="J33" s="37"/>
+      <c r="K33" s="37"/>
+      <c r="L33" s="38"/>
+      <c r="M33" s="37"/>
+      <c r="N33" s="37"/>
+      <c r="O33" s="38"/>
+      <c r="P33" s="37"/>
+      <c r="Q33" s="37"/>
+      <c r="R33" s="37"/>
+      <c r="S33" s="22"/>
       <c r="T33" s="18"/>
     </row>
-    <row r="34" spans="1:20" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A34" s="21"/>
       <c r="B34" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C34" s="9">
-        <v>6</v>
+        <v>11</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="D34" s="9"/>
-      <c r="E34" s="51"/>
-      <c r="F34" s="22"/>
-      <c r="G34" s="39" t="s">
-        <v>48</v>
-      </c>
-      <c r="H34" s="62" t="s">
-        <v>53</v>
-      </c>
-      <c r="I34" s="62"/>
-      <c r="J34" s="62"/>
-      <c r="K34" s="62"/>
-      <c r="L34" s="62"/>
-      <c r="M34" s="62"/>
-      <c r="N34" s="62"/>
-      <c r="O34" s="62"/>
-      <c r="P34" s="62"/>
-      <c r="Q34" s="62"/>
-      <c r="R34" s="62"/>
-      <c r="S34" s="53"/>
+      <c r="E34" s="49"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="37"/>
+      <c r="I34" s="37"/>
+      <c r="J34" s="37"/>
+      <c r="K34" s="37"/>
+      <c r="L34" s="38"/>
+      <c r="M34" s="37"/>
+      <c r="N34" s="37"/>
+      <c r="O34" s="38"/>
+      <c r="P34" s="37"/>
+      <c r="Q34" s="37"/>
+      <c r="R34" s="37"/>
+      <c r="S34" s="22"/>
       <c r="T34" s="18"/>
     </row>
-    <row r="35" spans="1:20" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A35" s="21"/>
       <c r="B35" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C35" s="9">
-        <v>500</v>
+        <v>13</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>14</v>
       </c>
       <c r="D35" s="9"/>
-      <c r="E35" s="51"/>
-      <c r="F35" s="22"/>
-      <c r="G35" s="39"/>
-      <c r="H35" s="62"/>
-      <c r="I35" s="62"/>
-      <c r="J35" s="62"/>
-      <c r="K35" s="62"/>
-      <c r="L35" s="62"/>
-      <c r="M35" s="62"/>
-      <c r="N35" s="62"/>
-      <c r="O35" s="62"/>
-      <c r="P35" s="62"/>
-      <c r="Q35" s="62"/>
-      <c r="R35" s="62"/>
-      <c r="S35" s="53"/>
+      <c r="E35" s="49"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="37"/>
+      <c r="I35" s="37"/>
+      <c r="J35" s="37"/>
+      <c r="K35" s="37"/>
+      <c r="L35" s="38"/>
+      <c r="M35" s="37"/>
+      <c r="N35" s="37"/>
+      <c r="O35" s="38"/>
+      <c r="P35" s="37"/>
+      <c r="Q35" s="37"/>
+      <c r="R35" s="37"/>
+      <c r="S35" s="22"/>
       <c r="T35" s="18"/>
     </row>
-    <row r="36" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A36" s="21"/>
-      <c r="B36" s="6"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="17"/>
-      <c r="E36" s="51"/>
-      <c r="F36" s="22"/>
-      <c r="G36" s="39" t="s">
+      <c r="B36" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="H36" s="62"/>
-      <c r="I36" s="62"/>
-      <c r="J36" s="62"/>
-      <c r="K36" s="62"/>
-      <c r="L36" s="62"/>
-      <c r="M36" s="62"/>
-      <c r="N36" s="62"/>
-      <c r="O36" s="62"/>
-      <c r="P36" s="62"/>
-      <c r="Q36" s="62"/>
-      <c r="R36" s="62"/>
-      <c r="S36" s="53"/>
+      <c r="C36" s="9">
+        <v>35</v>
+      </c>
+      <c r="D36" s="9"/>
+      <c r="E36" s="50"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="38"/>
+      <c r="I36" s="37"/>
+      <c r="J36" s="37"/>
+      <c r="K36" s="37"/>
+      <c r="L36" s="37"/>
+      <c r="M36" s="37"/>
+      <c r="N36" s="37"/>
+      <c r="O36" s="37"/>
+      <c r="P36" s="37"/>
+      <c r="Q36" s="37"/>
+      <c r="R36" s="37"/>
+      <c r="S36" s="22"/>
       <c r="T36" s="18"/>
     </row>
-    <row r="37" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A37" s="21"/>
-      <c r="B37" s="56" t="s">
-        <v>45</v>
-      </c>
-      <c r="C37" s="56"/>
-      <c r="D37" s="8"/>
+      <c r="B37" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C37" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D37" s="23"/>
       <c r="E37" s="51"/>
       <c r="F37" s="22"/>
-      <c r="G37" s="39"/>
-      <c r="H37" s="62"/>
-      <c r="I37" s="62"/>
-      <c r="J37" s="62"/>
-      <c r="K37" s="62"/>
-      <c r="L37" s="62"/>
-      <c r="M37" s="62"/>
-      <c r="N37" s="62"/>
-      <c r="O37" s="62"/>
-      <c r="P37" s="62"/>
-      <c r="Q37" s="62"/>
-      <c r="R37" s="62"/>
-      <c r="S37" s="53"/>
+      <c r="G37" s="22"/>
+      <c r="H37" s="38"/>
+      <c r="I37" s="37"/>
+      <c r="J37" s="37"/>
+      <c r="K37" s="37"/>
+      <c r="L37" s="37"/>
+      <c r="M37" s="37"/>
+      <c r="N37" s="37"/>
+      <c r="O37" s="37"/>
+      <c r="P37" s="37"/>
+      <c r="Q37" s="37"/>
+      <c r="R37" s="37"/>
+      <c r="S37" s="22"/>
       <c r="T37" s="18"/>
     </row>
-    <row r="38" spans="1:20" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A38" s="21"/>
-      <c r="B38" s="55"/>
-      <c r="C38" s="55"/>
-      <c r="D38" s="7"/>
+      <c r="B38" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C38" s="9">
+        <v>12</v>
+      </c>
+      <c r="D38" s="9"/>
       <c r="E38" s="51"/>
       <c r="F38" s="22"/>
-      <c r="G38" s="39"/>
-      <c r="H38" s="62"/>
-      <c r="I38" s="62"/>
-      <c r="J38" s="62"/>
-      <c r="K38" s="62"/>
-      <c r="L38" s="62"/>
-      <c r="M38" s="62"/>
-      <c r="N38" s="62"/>
-      <c r="O38" s="62"/>
-      <c r="P38" s="62"/>
-      <c r="Q38" s="62"/>
-      <c r="R38" s="62"/>
-      <c r="S38" s="53"/>
+      <c r="G38" s="22"/>
+      <c r="H38" s="53"/>
+      <c r="I38" s="53"/>
+      <c r="J38" s="53"/>
+      <c r="K38" s="53"/>
+      <c r="L38" s="53"/>
+      <c r="M38" s="53"/>
+      <c r="N38" s="53"/>
+      <c r="O38" s="53"/>
+      <c r="P38" s="53"/>
+      <c r="Q38" s="53"/>
+      <c r="R38" s="53"/>
+      <c r="S38" s="22"/>
       <c r="T38" s="18"/>
     </row>
-    <row r="39" spans="1:20" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A39" s="21"/>
-      <c r="B39" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C39" s="9">
-        <v>570</v>
-      </c>
-      <c r="D39" s="9"/>
+      <c r="B39" s="22"/>
+      <c r="C39" s="23"/>
+      <c r="D39" s="23"/>
       <c r="E39" s="51"/>
       <c r="F39" s="22"/>
-      <c r="G39" s="40"/>
-      <c r="H39" s="62"/>
-      <c r="I39" s="62"/>
-      <c r="J39" s="62"/>
-      <c r="K39" s="62"/>
-      <c r="L39" s="62"/>
-      <c r="M39" s="62"/>
-      <c r="N39" s="62"/>
-      <c r="O39" s="62"/>
-      <c r="P39" s="62"/>
-      <c r="Q39" s="62"/>
-      <c r="R39" s="62"/>
-      <c r="S39" s="53"/>
+      <c r="G39" s="22"/>
+      <c r="H39" s="53"/>
+      <c r="I39" s="53"/>
+      <c r="J39" s="53"/>
+      <c r="K39" s="53"/>
+      <c r="L39" s="53"/>
+      <c r="M39" s="53"/>
+      <c r="N39" s="53"/>
+      <c r="O39" s="53"/>
+      <c r="P39" s="53"/>
+      <c r="Q39" s="53"/>
+      <c r="R39" s="53"/>
+      <c r="S39" s="22"/>
       <c r="T39" s="18"/>
     </row>
-    <row r="40" spans="1:20" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:20" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="21"/>
-      <c r="B40" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C40" s="9">
-        <v>5</v>
-      </c>
-      <c r="D40" s="9"/>
+      <c r="B40" s="55" t="s">
+        <v>42</v>
+      </c>
+      <c r="C40" s="55"/>
+      <c r="D40" s="8"/>
       <c r="E40" s="51"/>
       <c r="F40" s="22"/>
-      <c r="G40" s="40"/>
-      <c r="H40" s="62"/>
-      <c r="I40" s="62"/>
-      <c r="J40" s="62"/>
-      <c r="K40" s="62"/>
-      <c r="L40" s="62"/>
-      <c r="M40" s="62"/>
-      <c r="N40" s="62"/>
-      <c r="O40" s="62"/>
-      <c r="P40" s="62"/>
-      <c r="Q40" s="62"/>
-      <c r="R40" s="62"/>
-      <c r="S40" s="53"/>
+      <c r="G40" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" s="58" t="s">
+        <v>51</v>
+      </c>
+      <c r="I40" s="58"/>
+      <c r="J40" s="58"/>
+      <c r="K40" s="58"/>
+      <c r="L40" s="58"/>
+      <c r="M40" s="58"/>
+      <c r="N40" s="58"/>
+      <c r="O40" s="58"/>
+      <c r="P40" s="58"/>
+      <c r="Q40" s="58"/>
+      <c r="R40" s="53"/>
+      <c r="S40" s="22"/>
       <c r="T40" s="18"/>
     </row>
-    <row r="41" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="21"/>
-      <c r="B41" s="9"/>
-      <c r="C41" s="9"/>
-      <c r="D41" s="9"/>
-      <c r="E41" s="49"/>
-      <c r="F41" s="6"/>
-      <c r="G41" s="40"/>
-      <c r="H41" s="62"/>
-      <c r="I41" s="62"/>
-      <c r="J41" s="62"/>
-      <c r="K41" s="62"/>
-      <c r="L41" s="62"/>
-      <c r="M41" s="62"/>
-      <c r="N41" s="62"/>
-      <c r="O41" s="62"/>
-      <c r="P41" s="62"/>
-      <c r="Q41" s="62"/>
-      <c r="R41" s="62"/>
-      <c r="S41" s="53"/>
+      <c r="B41" s="22"/>
+      <c r="C41" s="23"/>
+      <c r="D41" s="23"/>
+      <c r="E41" s="51"/>
+      <c r="F41" s="22"/>
+      <c r="G41" s="39"/>
+      <c r="H41" s="58"/>
+      <c r="I41" s="58"/>
+      <c r="J41" s="58"/>
+      <c r="K41" s="58"/>
+      <c r="L41" s="58"/>
+      <c r="M41" s="58"/>
+      <c r="N41" s="58"/>
+      <c r="O41" s="58"/>
+      <c r="P41" s="58"/>
+      <c r="Q41" s="58"/>
+      <c r="R41" s="53"/>
+      <c r="S41" s="22"/>
       <c r="T41" s="18"/>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A42" s="41"/>
-      <c r="B42" s="42"/>
-      <c r="C42" s="43"/>
-      <c r="D42" s="43"/>
-      <c r="E42" s="52"/>
-      <c r="F42" s="20"/>
-      <c r="G42" s="42"/>
-      <c r="H42" s="42"/>
-      <c r="I42" s="42"/>
-      <c r="J42" s="42"/>
-      <c r="K42" s="42"/>
-      <c r="L42" s="42"/>
-      <c r="M42" s="42"/>
-      <c r="N42" s="42"/>
-      <c r="O42" s="42"/>
-      <c r="P42" s="42"/>
-      <c r="Q42" s="42"/>
-      <c r="R42" s="42"/>
-      <c r="S42" s="43"/>
-      <c r="T42" s="44"/>
+    <row r="42" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="21"/>
+      <c r="B42" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D42" s="9"/>
+      <c r="E42" s="51"/>
+      <c r="F42" s="22"/>
+      <c r="G42" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" s="58"/>
+      <c r="I42" s="58"/>
+      <c r="J42" s="58"/>
+      <c r="K42" s="58"/>
+      <c r="L42" s="58"/>
+      <c r="M42" s="58"/>
+      <c r="N42" s="58"/>
+      <c r="O42" s="58"/>
+      <c r="P42" s="58"/>
+      <c r="Q42" s="58"/>
+      <c r="R42" s="53"/>
+      <c r="S42" s="53"/>
+      <c r="T42" s="18"/>
+    </row>
+    <row r="43" spans="1:20" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="21"/>
+      <c r="B43" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C43" s="9">
+        <v>6</v>
+      </c>
+      <c r="D43" s="9"/>
+      <c r="E43" s="51"/>
+      <c r="F43" s="22"/>
+      <c r="G43" s="39"/>
+      <c r="H43" s="58"/>
+      <c r="I43" s="58"/>
+      <c r="J43" s="58"/>
+      <c r="K43" s="58"/>
+      <c r="L43" s="58"/>
+      <c r="M43" s="58"/>
+      <c r="N43" s="58"/>
+      <c r="O43" s="58"/>
+      <c r="P43" s="58"/>
+      <c r="Q43" s="58"/>
+      <c r="R43" s="63"/>
+      <c r="S43" s="53"/>
+      <c r="T43" s="18"/>
+    </row>
+    <row r="44" spans="1:20" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="21"/>
+      <c r="B44" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C44" s="9">
+        <v>500</v>
+      </c>
+      <c r="D44" s="9"/>
+      <c r="E44" s="51"/>
+      <c r="F44" s="22"/>
+      <c r="G44" s="39"/>
+      <c r="H44" s="58"/>
+      <c r="I44" s="58"/>
+      <c r="J44" s="58"/>
+      <c r="K44" s="58"/>
+      <c r="L44" s="58"/>
+      <c r="M44" s="58"/>
+      <c r="N44" s="58"/>
+      <c r="O44" s="58"/>
+      <c r="P44" s="58"/>
+      <c r="Q44" s="58"/>
+      <c r="R44" s="63"/>
+      <c r="S44" s="53"/>
+      <c r="T44" s="18"/>
+    </row>
+    <row r="45" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="21"/>
+      <c r="B45" s="6"/>
+      <c r="C45" s="17"/>
+      <c r="D45" s="17"/>
+      <c r="E45" s="51"/>
+      <c r="F45" s="22"/>
+      <c r="G45" s="39"/>
+      <c r="H45" s="58"/>
+      <c r="I45" s="58"/>
+      <c r="J45" s="58"/>
+      <c r="K45" s="58"/>
+      <c r="L45" s="58"/>
+      <c r="M45" s="58"/>
+      <c r="N45" s="58"/>
+      <c r="O45" s="58"/>
+      <c r="P45" s="58"/>
+      <c r="Q45" s="58"/>
+      <c r="R45" s="63"/>
+      <c r="S45" s="53"/>
+      <c r="T45" s="18"/>
+    </row>
+    <row r="46" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="21"/>
+      <c r="B46" s="55" t="s">
+        <v>43</v>
+      </c>
+      <c r="C46" s="55"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="51"/>
+      <c r="F46" s="22"/>
+      <c r="G46" s="39"/>
+      <c r="H46" s="58"/>
+      <c r="I46" s="58"/>
+      <c r="J46" s="58"/>
+      <c r="K46" s="58"/>
+      <c r="L46" s="58"/>
+      <c r="M46" s="58"/>
+      <c r="N46" s="58"/>
+      <c r="O46" s="58"/>
+      <c r="P46" s="58"/>
+      <c r="Q46" s="58"/>
+      <c r="R46" s="63"/>
+      <c r="S46" s="53"/>
+      <c r="T46" s="18"/>
+    </row>
+    <row r="47" spans="1:20" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="21"/>
+      <c r="B47" s="60"/>
+      <c r="C47" s="60"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="51"/>
+      <c r="F47" s="22"/>
+      <c r="G47" s="39"/>
+      <c r="H47" s="58"/>
+      <c r="I47" s="58"/>
+      <c r="J47" s="58"/>
+      <c r="K47" s="58"/>
+      <c r="L47" s="58"/>
+      <c r="M47" s="58"/>
+      <c r="N47" s="58"/>
+      <c r="O47" s="58"/>
+      <c r="P47" s="58"/>
+      <c r="Q47" s="58"/>
+      <c r="R47" s="63"/>
+      <c r="S47" s="53"/>
+      <c r="T47" s="18"/>
+    </row>
+    <row r="48" spans="1:20" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="21"/>
+      <c r="B48" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C48" s="9">
+        <v>570</v>
+      </c>
+      <c r="D48" s="9"/>
+      <c r="E48" s="51"/>
+      <c r="F48" s="22"/>
+      <c r="G48" s="40"/>
+      <c r="H48" s="63"/>
+      <c r="I48" s="63"/>
+      <c r="J48" s="63"/>
+      <c r="K48" s="63"/>
+      <c r="L48" s="63"/>
+      <c r="M48" s="63"/>
+      <c r="N48" s="63"/>
+      <c r="O48" s="63"/>
+      <c r="P48" s="63"/>
+      <c r="Q48" s="63"/>
+      <c r="R48" s="63"/>
+      <c r="S48" s="53"/>
+      <c r="T48" s="18"/>
+    </row>
+    <row r="49" spans="1:20" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="21"/>
+      <c r="B49" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C49" s="9">
+        <v>5</v>
+      </c>
+      <c r="D49" s="9"/>
+      <c r="E49" s="51"/>
+      <c r="F49" s="22"/>
+      <c r="G49" s="40"/>
+      <c r="H49" s="63"/>
+      <c r="I49" s="63"/>
+      <c r="J49" s="63"/>
+      <c r="K49" s="63"/>
+      <c r="L49" s="63"/>
+      <c r="M49" s="63"/>
+      <c r="N49" s="63"/>
+      <c r="O49" s="63"/>
+      <c r="P49" s="63"/>
+      <c r="Q49" s="63"/>
+      <c r="R49" s="63"/>
+      <c r="S49" s="53"/>
+      <c r="T49" s="18"/>
+    </row>
+    <row r="50" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="21"/>
+      <c r="B50" s="9"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="49"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="40"/>
+      <c r="H50" s="63"/>
+      <c r="I50" s="63"/>
+      <c r="J50" s="63"/>
+      <c r="K50" s="63"/>
+      <c r="L50" s="63"/>
+      <c r="M50" s="63"/>
+      <c r="N50" s="63"/>
+      <c r="O50" s="63"/>
+      <c r="P50" s="63"/>
+      <c r="Q50" s="63"/>
+      <c r="R50" s="63"/>
+      <c r="S50" s="53"/>
+      <c r="T50" s="18"/>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A51" s="41"/>
+      <c r="B51" s="42"/>
+      <c r="C51" s="43"/>
+      <c r="D51" s="43"/>
+      <c r="E51" s="52"/>
+      <c r="F51" s="20"/>
+      <c r="G51" s="42"/>
+      <c r="H51" s="42"/>
+      <c r="I51" s="42"/>
+      <c r="J51" s="42"/>
+      <c r="K51" s="42"/>
+      <c r="L51" s="42"/>
+      <c r="M51" s="42"/>
+      <c r="N51" s="42"/>
+      <c r="O51" s="42"/>
+      <c r="P51" s="42"/>
+      <c r="Q51" s="42"/>
+      <c r="R51" s="42"/>
+      <c r="S51" s="43"/>
+      <c r="T51" s="44"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="B31:C31"/>
+  <mergeCells count="19">
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B21:C23"/>
+    <mergeCell ref="H40:Q47"/>
+    <mergeCell ref="B40:C40"/>
     <mergeCell ref="A1:T1"/>
-    <mergeCell ref="H34:R41"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="G2:S2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="G3:S3"/>
     <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="G9:S9"/>
     <mergeCell ref="G4:S4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="G10:S10"/>
     <mergeCell ref="G5:S5"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="G6:S6"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B25:C25"/>
   </mergeCells>
   <dataValidations disablePrompts="1" xWindow="413" yWindow="673" count="3">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="STOP!_x000a__x000a_Use button to return to Input Worksheet." sqref="C18:D21 C39:D41 C36:D36 C33:D33 C29:D29 C25:D27" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Base Thickness" error="Out of Range – Please Enter a Value between 2 and 6." prompt="STOP!_x000a__x000a_Use button to return to Input Worksheet." sqref="C34:D34" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="STOP!_x000a__x000a_Use button to return to Input Worksheet." sqref="C27:D30 C48:D50 C45:D45 C42:D42 C38:D38 C34:D36" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Base Thickness" error="Out of Range – Please Enter a Value between 2 and 6." prompt="STOP!_x000a__x000a_Use button to return to Input Worksheet." sqref="C43:D43" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>2</formula1>
       <formula2>6</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Modulus of Base Layer" error="Out of Range – Please Enter a Value between 50 and 2000." prompt="STOP!_x000a__x000a_Use button to return to Input Worksheet." sqref="C35:D35" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Modulus of Base Layer" error="Out of Range – Please Enter a Value between 50 and 2000." prompt="STOP!_x000a__x000a_Use button to return to Input Worksheet." sqref="C44:D44" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>50</formula1>
       <formula2>2000</formula2>
     </dataValidation>
@@ -2357,43 +2621,43 @@
   <sheetData>
     <row r="1" spans="1:13" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="H1" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="J1" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="L1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>65</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/src/component/data/01062021 TxCRCP-ME Analysis Result Sheet.xlsx
+++ b/src/component/data/01062021 TxCRCP-ME Analysis Result Sheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\STORE\nvtngan\project\github\txDoT\src\component\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\STORE\project\TxDOT\src\component\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F05F0AC9-15AD-4060-A94C-21627F841B93}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88500836-4841-43F1-8E52-2DF9CDFB9DA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4764" yWindow="828" windowWidth="17280" windowHeight="11532" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="760" yWindow="760" windowWidth="19200" windowHeight="14100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Result" sheetId="1" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="78">
   <si>
     <t xml:space="preserve"> INPUT DATA</t>
   </si>
@@ -194,9 +194,6 @@
   </si>
   <si>
     <t>*</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Design Slab Thickness</t>
   </si>
   <si>
     <t xml:space="preserve"> Plasticity Index (PI)</t>
@@ -317,6 +314,12 @@
   </si>
   <si>
     <t xml:space="preserve">     RM. (End)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Design Slab Thickness (in.)</t>
+  </si>
+  <si>
+    <t>"</t>
   </si>
 </sst>
 </file>
@@ -613,7 +616,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -630,53 +633,50 @@
     <xf numFmtId="165" fontId="2" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -688,43 +688,43 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -733,36 +733,61 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -770,40 +795,15 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1235,172 +1235,172 @@
   <dimension ref="A1:V51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="63" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="G3" sqref="G3:S3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="13.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="2" style="19" customWidth="1"/>
-    <col min="2" max="2" width="43.21875" style="19" customWidth="1"/>
-    <col min="3" max="3" width="17.6640625" style="45" customWidth="1"/>
-    <col min="4" max="4" width="2" style="45" customWidth="1"/>
-    <col min="5" max="5" width="0.44140625" style="19" customWidth="1"/>
-    <col min="6" max="6" width="2" style="19" customWidth="1"/>
-    <col min="7" max="16" width="4.6640625" style="19" customWidth="1"/>
-    <col min="17" max="17" width="3.88671875" style="19" customWidth="1"/>
-    <col min="18" max="18" width="1.77734375" style="19" customWidth="1"/>
-    <col min="19" max="19" width="5.44140625" style="45" customWidth="1"/>
-    <col min="20" max="20" width="2" style="19" customWidth="1"/>
-    <col min="21" max="16384" width="9.109375" style="19"/>
+    <col min="1" max="1" width="2" style="18" customWidth="1"/>
+    <col min="2" max="2" width="43.1796875" style="18" customWidth="1"/>
+    <col min="3" max="3" width="17.6328125" style="44" customWidth="1"/>
+    <col min="4" max="4" width="2" style="44" customWidth="1"/>
+    <col min="5" max="5" width="0.453125" style="18" customWidth="1"/>
+    <col min="6" max="6" width="2" style="18" customWidth="1"/>
+    <col min="7" max="16" width="4.6328125" style="18" customWidth="1"/>
+    <col min="17" max="17" width="3.90625" style="18" customWidth="1"/>
+    <col min="18" max="18" width="1.81640625" style="18" customWidth="1"/>
+    <col min="19" max="19" width="5.453125" style="44" customWidth="1"/>
+    <col min="20" max="20" width="2" style="18" customWidth="1"/>
+    <col min="21" max="16384" width="9.08984375" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="56" t="s">
-        <v>69</v>
-      </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="57"/>
-      <c r="M1" s="57"/>
-      <c r="N1" s="57"/>
-      <c r="O1" s="57"/>
-      <c r="P1" s="57"/>
-      <c r="Q1" s="57"/>
-      <c r="R1" s="57"/>
-      <c r="S1" s="57"/>
-      <c r="T1" s="57"/>
-      <c r="U1" s="69"/>
-    </row>
-    <row r="2" spans="1:22" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="65"/>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="66"/>
-      <c r="K2" s="66"/>
-      <c r="L2" s="66"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="66"/>
-      <c r="O2" s="66"/>
-      <c r="P2" s="66"/>
-      <c r="Q2" s="66"/>
-      <c r="R2" s="66"/>
-      <c r="S2" s="66"/>
-      <c r="T2" s="67"/>
-      <c r="U2" s="69"/>
-    </row>
-    <row r="3" spans="1:22" ht="18.600000000000001" x14ac:dyDescent="0.3">
-      <c r="A3" s="21"/>
-      <c r="B3" s="59" t="s">
+    <row r="1" spans="1:22" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="64" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="65"/>
+      <c r="M1" s="65"/>
+      <c r="N1" s="65"/>
+      <c r="O1" s="65"/>
+      <c r="P1" s="65"/>
+      <c r="Q1" s="65"/>
+      <c r="R1" s="65"/>
+      <c r="S1" s="65"/>
+      <c r="T1" s="65"/>
+      <c r="U1" s="59"/>
+    </row>
+    <row r="2" spans="1:22" ht="10.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="55"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="56"/>
+      <c r="N2" s="56"/>
+      <c r="O2" s="56"/>
+      <c r="P2" s="56"/>
+      <c r="Q2" s="56"/>
+      <c r="R2" s="56"/>
+      <c r="S2" s="56"/>
+      <c r="T2" s="57"/>
+      <c r="U2" s="59"/>
+    </row>
+    <row r="3" spans="1:22" ht="19" x14ac:dyDescent="0.35">
+      <c r="A3" s="20"/>
+      <c r="B3" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="59"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="59" t="s">
+      <c r="C3" s="66"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="59"/>
-      <c r="I3" s="59"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="59"/>
-      <c r="L3" s="59"/>
-      <c r="M3" s="59"/>
-      <c r="N3" s="59"/>
-      <c r="O3" s="59"/>
-      <c r="P3" s="59"/>
-      <c r="Q3" s="59"/>
-      <c r="R3" s="59"/>
-      <c r="S3" s="59"/>
-      <c r="T3" s="18"/>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A4" s="21"/>
-      <c r="B4" s="60"/>
-      <c r="C4" s="60"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="66"/>
+      <c r="J3" s="66"/>
+      <c r="K3" s="66"/>
+      <c r="L3" s="66"/>
+      <c r="M3" s="66"/>
+      <c r="N3" s="66"/>
+      <c r="O3" s="66"/>
+      <c r="P3" s="66"/>
+      <c r="Q3" s="66"/>
+      <c r="R3" s="66"/>
+      <c r="S3" s="66"/>
+      <c r="T3" s="17"/>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A4" s="20"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="67"/>
       <c r="D4" s="7"/>
-      <c r="E4" s="49"/>
+      <c r="E4" s="48"/>
       <c r="F4" s="6"/>
-      <c r="G4" s="60"/>
-      <c r="H4" s="60"/>
-      <c r="I4" s="60"/>
-      <c r="J4" s="60"/>
-      <c r="K4" s="60"/>
-      <c r="L4" s="60"/>
-      <c r="M4" s="60"/>
-      <c r="N4" s="60"/>
-      <c r="O4" s="60"/>
-      <c r="P4" s="60"/>
-      <c r="Q4" s="60"/>
-      <c r="R4" s="60"/>
-      <c r="S4" s="60"/>
-      <c r="T4" s="18"/>
-    </row>
-    <row r="5" spans="1:22" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="21"/>
-      <c r="B5" s="55" t="s">
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="67"/>
+      <c r="J4" s="67"/>
+      <c r="K4" s="67"/>
+      <c r="L4" s="67"/>
+      <c r="M4" s="67"/>
+      <c r="N4" s="67"/>
+      <c r="O4" s="67"/>
+      <c r="P4" s="67"/>
+      <c r="Q4" s="67"/>
+      <c r="R4" s="67"/>
+      <c r="S4" s="67"/>
+      <c r="T4" s="17"/>
+    </row>
+    <row r="5" spans="1:22" ht="16" x14ac:dyDescent="0.35">
+      <c r="A5" s="20"/>
+      <c r="B5" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="55"/>
+      <c r="C5" s="61"/>
       <c r="D5" s="8"/>
-      <c r="E5" s="49"/>
+      <c r="E5" s="48"/>
       <c r="F5" s="6"/>
-      <c r="G5" s="61" t="s">
+      <c r="G5" s="68" t="s">
         <v>45</v>
       </c>
-      <c r="H5" s="61"/>
-      <c r="I5" s="61"/>
-      <c r="J5" s="61"/>
-      <c r="K5" s="61"/>
-      <c r="L5" s="61"/>
-      <c r="M5" s="61"/>
-      <c r="N5" s="61"/>
-      <c r="O5" s="61"/>
-      <c r="P5" s="61"/>
-      <c r="Q5" s="61"/>
-      <c r="R5" s="61"/>
-      <c r="S5" s="61"/>
-      <c r="T5" s="18"/>
-      <c r="V5" s="54"/>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A6" s="21"/>
-      <c r="B6" s="60"/>
-      <c r="C6" s="60"/>
+      <c r="H5" s="68"/>
+      <c r="I5" s="68"/>
+      <c r="J5" s="68"/>
+      <c r="K5" s="68"/>
+      <c r="L5" s="68"/>
+      <c r="M5" s="68"/>
+      <c r="N5" s="68"/>
+      <c r="O5" s="68"/>
+      <c r="P5" s="68"/>
+      <c r="Q5" s="68"/>
+      <c r="R5" s="68"/>
+      <c r="S5" s="68"/>
+      <c r="T5" s="17"/>
+      <c r="V5" s="53"/>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A6" s="20"/>
+      <c r="B6" s="67"/>
+      <c r="C6" s="67"/>
       <c r="D6" s="7"/>
-      <c r="E6" s="49"/>
+      <c r="E6" s="48"/>
       <c r="F6" s="6"/>
-      <c r="G6" s="60"/>
-      <c r="H6" s="60"/>
-      <c r="I6" s="60"/>
-      <c r="J6" s="60"/>
-      <c r="K6" s="60"/>
-      <c r="L6" s="60"/>
-      <c r="M6" s="60"/>
-      <c r="N6" s="60"/>
-      <c r="O6" s="60"/>
-      <c r="P6" s="60"/>
-      <c r="Q6" s="60"/>
-      <c r="R6" s="60"/>
-      <c r="S6" s="60"/>
-      <c r="T6" s="18"/>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A7" s="21"/>
+      <c r="G6" s="67"/>
+      <c r="H6" s="67"/>
+      <c r="I6" s="67"/>
+      <c r="J6" s="67"/>
+      <c r="K6" s="67"/>
+      <c r="L6" s="67"/>
+      <c r="M6" s="67"/>
+      <c r="N6" s="67"/>
+      <c r="O6" s="67"/>
+      <c r="P6" s="67"/>
+      <c r="Q6" s="67"/>
+      <c r="R6" s="67"/>
+      <c r="S6" s="67"/>
+      <c r="T6" s="17"/>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A7" s="20"/>
       <c r="B7" s="6" t="s">
         <v>2</v>
       </c>
@@ -1408,10 +1408,10 @@
         <v>3</v>
       </c>
       <c r="D7" s="9"/>
-      <c r="E7" s="49"/>
+      <c r="E7" s="48"/>
       <c r="F7" s="6"/>
       <c r="G7" s="10" t="s">
-        <v>47</v>
+        <v>76</v>
       </c>
       <c r="H7" s="10"/>
       <c r="I7" s="10"/>
@@ -1427,10 +1427,12 @@
       <c r="S7" s="11">
         <v>13</v>
       </c>
-      <c r="T7" s="18"/>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A8" s="21"/>
+      <c r="T7" s="17" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A8" s="20"/>
       <c r="B8" s="6" t="s">
         <v>4</v>
       </c>
@@ -1438,7 +1440,7 @@
         <v>5</v>
       </c>
       <c r="D8" s="9"/>
-      <c r="E8" s="49"/>
+      <c r="E8" s="48"/>
       <c r="F8" s="6"/>
       <c r="G8" s="12" t="s">
         <v>20</v>
@@ -1448,19 +1450,19 @@
       <c r="J8" s="12"/>
       <c r="K8" s="12"/>
       <c r="L8" s="12"/>
-      <c r="M8" s="13"/>
-      <c r="N8" s="13"/>
-      <c r="O8" s="13"/>
-      <c r="P8" s="13"/>
-      <c r="Q8" s="13"/>
-      <c r="R8" s="13"/>
-      <c r="S8" s="14">
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="13">
         <v>8.8401751229188417</v>
       </c>
-      <c r="T8" s="18"/>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A9" s="21"/>
+      <c r="T8" s="17"/>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A9" s="20"/>
       <c r="B9" s="6" t="s">
         <v>7</v>
       </c>
@@ -1468,25 +1470,25 @@
         <v>8</v>
       </c>
       <c r="D9" s="9"/>
-      <c r="E9" s="49"/>
+      <c r="E9" s="48"/>
       <c r="F9" s="6"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="22"/>
-      <c r="L9" s="22"/>
-      <c r="M9" s="22"/>
-      <c r="N9" s="22"/>
-      <c r="O9" s="22"/>
-      <c r="P9" s="22"/>
-      <c r="Q9" s="22"/>
-      <c r="R9" s="22"/>
-      <c r="S9" s="23"/>
-      <c r="T9" s="18"/>
-    </row>
-    <row r="10" spans="1:22" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A10" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="21"/>
+      <c r="O9" s="21"/>
+      <c r="P9" s="21"/>
+      <c r="Q9" s="21"/>
+      <c r="R9" s="21"/>
+      <c r="S9" s="22"/>
+      <c r="T9" s="17"/>
+    </row>
+    <row r="10" spans="1:22" ht="16" x14ac:dyDescent="0.35">
+      <c r="A10" s="20"/>
       <c r="B10" s="6" t="s">
         <v>9</v>
       </c>
@@ -1494,27 +1496,27 @@
         <v>10</v>
       </c>
       <c r="D10" s="9"/>
-      <c r="E10" s="49"/>
+      <c r="E10" s="48"/>
       <c r="F10" s="6"/>
-      <c r="G10" s="61" t="s">
+      <c r="G10" s="68" t="s">
         <v>44</v>
       </c>
-      <c r="H10" s="61"/>
-      <c r="I10" s="61"/>
-      <c r="J10" s="61"/>
-      <c r="K10" s="61"/>
-      <c r="L10" s="61"/>
-      <c r="M10" s="61"/>
-      <c r="N10" s="61"/>
-      <c r="O10" s="61"/>
-      <c r="P10" s="61"/>
-      <c r="Q10" s="61"/>
-      <c r="R10" s="61"/>
-      <c r="S10" s="61"/>
-      <c r="T10" s="18"/>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A11" s="21"/>
+      <c r="H10" s="68"/>
+      <c r="I10" s="68"/>
+      <c r="J10" s="68"/>
+      <c r="K10" s="68"/>
+      <c r="L10" s="68"/>
+      <c r="M10" s="68"/>
+      <c r="N10" s="68"/>
+      <c r="O10" s="68"/>
+      <c r="P10" s="68"/>
+      <c r="Q10" s="68"/>
+      <c r="R10" s="68"/>
+      <c r="S10" s="68"/>
+      <c r="T10" s="17"/>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A11" s="20"/>
       <c r="B11" s="6" t="s">
         <v>40</v>
       </c>
@@ -1522,407 +1524,407 @@
         <v>39</v>
       </c>
       <c r="D11" s="9"/>
-      <c r="E11" s="49"/>
+      <c r="E11" s="48"/>
       <c r="F11" s="6"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="15"/>
-      <c r="N11" s="15"/>
-      <c r="O11" s="15"/>
-      <c r="P11" s="15"/>
-      <c r="Q11" s="15"/>
-      <c r="R11" s="15"/>
-      <c r="S11" s="15"/>
-      <c r="T11" s="18"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A12" s="21"/>
-      <c r="B12" s="64" t="s">
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="14"/>
+      <c r="P11" s="14"/>
+      <c r="Q11" s="14"/>
+      <c r="R11" s="14"/>
+      <c r="S11" s="14"/>
+      <c r="T11" s="17"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A12" s="20"/>
+      <c r="B12" s="60" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" s="60"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="26"/>
+      <c r="M12" s="26"/>
+      <c r="N12" s="26"/>
+      <c r="O12" s="26"/>
+      <c r="P12" s="26"/>
+      <c r="Q12" s="26"/>
+      <c r="R12" s="26"/>
+      <c r="S12" s="14"/>
+      <c r="T12" s="17"/>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A13" s="20"/>
+      <c r="B13" s="6" t="s">
         <v>70</v>
-      </c>
-      <c r="C12" s="64"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="49"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="27"/>
-      <c r="L12" s="27"/>
-      <c r="M12" s="27"/>
-      <c r="N12" s="27"/>
-      <c r="O12" s="27"/>
-      <c r="P12" s="27"/>
-      <c r="Q12" s="27"/>
-      <c r="R12" s="27"/>
-      <c r="S12" s="15"/>
-      <c r="T12" s="18"/>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A13" s="21"/>
-      <c r="B13" s="6" t="s">
-        <v>71</v>
       </c>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
-      <c r="E13" s="49"/>
+      <c r="E13" s="48"/>
       <c r="F13" s="6"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="29" t="s">
+      <c r="G13" s="14"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="J13" s="28"/>
-      <c r="K13" s="28"/>
-      <c r="L13" s="28" t="s">
+      <c r="J13" s="27"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="M13" s="30"/>
-      <c r="N13" s="30"/>
-      <c r="O13" s="28" t="s">
+      <c r="M13" s="29"/>
+      <c r="N13" s="29"/>
+      <c r="O13" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="P13" s="30"/>
-      <c r="Q13" s="30"/>
-      <c r="R13" s="30"/>
-      <c r="S13" s="15"/>
-      <c r="T13" s="18"/>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A14" s="21"/>
+      <c r="P13" s="29"/>
+      <c r="Q13" s="29"/>
+      <c r="R13" s="29"/>
+      <c r="S13" s="14"/>
+      <c r="T13" s="17"/>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A14" s="20"/>
       <c r="B14" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
-      <c r="E14" s="49"/>
+      <c r="E14" s="48"/>
       <c r="F14" s="6"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="28"/>
-      <c r="L14" s="28"/>
-      <c r="M14" s="30"/>
-      <c r="N14" s="30"/>
-      <c r="O14" s="28"/>
-      <c r="P14" s="30"/>
-      <c r="Q14" s="30"/>
-      <c r="R14" s="30"/>
-      <c r="S14" s="15"/>
-      <c r="T14" s="18"/>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A15" s="21"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="27"/>
+      <c r="L14" s="27"/>
+      <c r="M14" s="29"/>
+      <c r="N14" s="29"/>
+      <c r="O14" s="27"/>
+      <c r="P14" s="29"/>
+      <c r="Q14" s="29"/>
+      <c r="R14" s="29"/>
+      <c r="S14" s="14"/>
+      <c r="T14" s="17"/>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A15" s="20"/>
       <c r="B15" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C15" s="9" t="s">
         <v>25</v>
       </c>
       <c r="D15" s="9"/>
-      <c r="E15" s="49"/>
+      <c r="E15" s="48"/>
       <c r="F15" s="6"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="28"/>
-      <c r="K15" s="28"/>
-      <c r="L15" s="28"/>
-      <c r="M15" s="30"/>
-      <c r="N15" s="30"/>
-      <c r="O15" s="28"/>
-      <c r="P15" s="30"/>
-      <c r="Q15" s="30"/>
-      <c r="R15" s="30"/>
-      <c r="S15" s="24"/>
-      <c r="T15" s="18"/>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A16" s="21"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="27"/>
+      <c r="M15" s="29"/>
+      <c r="N15" s="29"/>
+      <c r="O15" s="27"/>
+      <c r="P15" s="29"/>
+      <c r="Q15" s="29"/>
+      <c r="R15" s="29"/>
+      <c r="S15" s="23"/>
+      <c r="T15" s="17"/>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A16" s="20"/>
       <c r="B16" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C16" s="9" t="s">
         <v>26</v>
       </c>
       <c r="D16" s="9"/>
-      <c r="E16" s="49"/>
+      <c r="E16" s="48"/>
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="28"/>
-      <c r="J16" s="28"/>
-      <c r="K16" s="28"/>
-      <c r="L16" s="30"/>
-      <c r="M16" s="30"/>
-      <c r="N16" s="30"/>
-      <c r="O16" s="28"/>
-      <c r="P16" s="30"/>
-      <c r="Q16" s="30"/>
-      <c r="R16" s="30"/>
-      <c r="S16" s="22"/>
-      <c r="T16" s="18"/>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A17" s="21"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="27"/>
+      <c r="L16" s="29"/>
+      <c r="M16" s="29"/>
+      <c r="N16" s="29"/>
+      <c r="O16" s="27"/>
+      <c r="P16" s="29"/>
+      <c r="Q16" s="29"/>
+      <c r="R16" s="29"/>
+      <c r="S16" s="21"/>
+      <c r="T16" s="17"/>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A17" s="20"/>
       <c r="B17" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
-      <c r="E17" s="49"/>
+      <c r="E17" s="48"/>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="28"/>
-      <c r="K17" s="28"/>
-      <c r="L17" s="30"/>
-      <c r="M17" s="30"/>
-      <c r="N17" s="30"/>
-      <c r="O17" s="28"/>
-      <c r="P17" s="30"/>
-      <c r="Q17" s="30"/>
-      <c r="R17" s="30"/>
-      <c r="S17" s="22"/>
-      <c r="T17" s="18"/>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A18" s="21"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="27"/>
+      <c r="L17" s="29"/>
+      <c r="M17" s="29"/>
+      <c r="N17" s="29"/>
+      <c r="O17" s="27"/>
+      <c r="P17" s="29"/>
+      <c r="Q17" s="29"/>
+      <c r="R17" s="29"/>
+      <c r="S17" s="21"/>
+      <c r="T17" s="17"/>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A18" s="20"/>
       <c r="B18" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
-      <c r="E18" s="49"/>
+      <c r="E18" s="48"/>
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="28"/>
-      <c r="J18" s="28"/>
-      <c r="K18" s="28"/>
-      <c r="L18" s="30"/>
-      <c r="M18" s="30"/>
-      <c r="N18" s="30"/>
-      <c r="O18" s="28"/>
-      <c r="P18" s="30"/>
-      <c r="Q18" s="30"/>
-      <c r="R18" s="30"/>
-      <c r="S18" s="22"/>
-      <c r="T18" s="18"/>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A19" s="21"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="27"/>
+      <c r="K18" s="27"/>
+      <c r="L18" s="29"/>
+      <c r="M18" s="29"/>
+      <c r="N18" s="29"/>
+      <c r="O18" s="27"/>
+      <c r="P18" s="29"/>
+      <c r="Q18" s="29"/>
+      <c r="R18" s="29"/>
+      <c r="S18" s="21"/>
+      <c r="T18" s="17"/>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A19" s="20"/>
       <c r="B19" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
-      <c r="E19" s="49"/>
+      <c r="E19" s="48"/>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
-      <c r="H19" s="28"/>
-      <c r="I19" s="28"/>
-      <c r="J19" s="28"/>
-      <c r="K19" s="28"/>
-      <c r="L19" s="28"/>
-      <c r="M19" s="28"/>
-      <c r="N19" s="28"/>
-      <c r="O19" s="28"/>
-      <c r="P19" s="30"/>
-      <c r="Q19" s="30"/>
-      <c r="R19" s="30"/>
-      <c r="S19" s="22"/>
-      <c r="T19" s="18"/>
-    </row>
-    <row r="20" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A20" s="21"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="27"/>
+      <c r="K19" s="27"/>
+      <c r="L19" s="27"/>
+      <c r="M19" s="27"/>
+      <c r="N19" s="27"/>
+      <c r="O19" s="27"/>
+      <c r="P19" s="29"/>
+      <c r="Q19" s="29"/>
+      <c r="R19" s="29"/>
+      <c r="S19" s="21"/>
+      <c r="T19" s="17"/>
+    </row>
+    <row r="20" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="20"/>
       <c r="B20" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
-      <c r="E20" s="49"/>
+      <c r="E20" s="48"/>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
-      <c r="H20" s="31"/>
-      <c r="I20" s="31" t="s">
-        <v>68</v>
-      </c>
-      <c r="J20" s="32"/>
-      <c r="K20" s="32"/>
-      <c r="L20" s="31" t="s">
+      <c r="H20" s="30"/>
+      <c r="I20" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="J20" s="31"/>
+      <c r="K20" s="31"/>
+      <c r="L20" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="M20" s="32"/>
-      <c r="N20" s="32"/>
-      <c r="O20" s="31" t="s">
+      <c r="M20" s="31"/>
+      <c r="N20" s="31"/>
+      <c r="O20" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="P20" s="32"/>
-      <c r="Q20" s="32"/>
-      <c r="R20" s="32"/>
-      <c r="S20" s="22"/>
-      <c r="T20" s="18"/>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A21" s="21"/>
+      <c r="P20" s="31"/>
+      <c r="Q20" s="31"/>
+      <c r="R20" s="31"/>
+      <c r="S20" s="21"/>
+      <c r="T20" s="17"/>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A21" s="20"/>
       <c r="B21" s="62"/>
       <c r="C21" s="62"/>
       <c r="D21" s="9"/>
-      <c r="E21" s="49"/>
+      <c r="E21" s="48"/>
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
-      <c r="H21" s="33"/>
-      <c r="I21" s="33"/>
-      <c r="J21" s="34"/>
-      <c r="K21" s="34"/>
-      <c r="L21" s="35"/>
-      <c r="M21" s="35"/>
-      <c r="N21" s="35"/>
-      <c r="O21" s="34"/>
-      <c r="P21" s="35"/>
-      <c r="Q21" s="35"/>
-      <c r="R21" s="35"/>
-      <c r="S21" s="22"/>
-      <c r="T21" s="18"/>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A22" s="21"/>
+      <c r="H21" s="32"/>
+      <c r="I21" s="32"/>
+      <c r="J21" s="33"/>
+      <c r="K21" s="33"/>
+      <c r="L21" s="34"/>
+      <c r="M21" s="34"/>
+      <c r="N21" s="34"/>
+      <c r="O21" s="33"/>
+      <c r="P21" s="34"/>
+      <c r="Q21" s="34"/>
+      <c r="R21" s="34"/>
+      <c r="S21" s="21"/>
+      <c r="T21" s="17"/>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A22" s="20"/>
       <c r="B22" s="62"/>
       <c r="C22" s="62"/>
       <c r="D22" s="9"/>
-      <c r="E22" s="49"/>
+      <c r="E22" s="48"/>
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
-      <c r="H22" s="34"/>
-      <c r="I22" s="33" t="s">
+      <c r="H22" s="33"/>
+      <c r="I22" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="J22" s="34"/>
-      <c r="K22" s="34"/>
-      <c r="L22" s="34" t="s">
+      <c r="J22" s="33"/>
+      <c r="K22" s="33"/>
+      <c r="L22" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="M22" s="35"/>
-      <c r="N22" s="35"/>
-      <c r="O22" s="34" t="s">
+      <c r="M22" s="34"/>
+      <c r="N22" s="34"/>
+      <c r="O22" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="P22" s="35"/>
-      <c r="Q22" s="35"/>
-      <c r="R22" s="35"/>
-      <c r="S22" s="22"/>
-      <c r="T22" s="18"/>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A23" s="21"/>
+      <c r="P22" s="34"/>
+      <c r="Q22" s="34"/>
+      <c r="R22" s="34"/>
+      <c r="S22" s="21"/>
+      <c r="T22" s="17"/>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A23" s="20"/>
       <c r="B23" s="62"/>
       <c r="C23" s="62"/>
       <c r="D23" s="9"/>
-      <c r="E23" s="49"/>
+      <c r="E23" s="48"/>
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
-      <c r="H23" s="34"/>
-      <c r="I23" s="34"/>
-      <c r="J23" s="34"/>
-      <c r="K23" s="34"/>
-      <c r="L23" s="34" t="s">
+      <c r="H23" s="33"/>
+      <c r="I23" s="33"/>
+      <c r="J23" s="33"/>
+      <c r="K23" s="33"/>
+      <c r="L23" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="M23" s="35"/>
-      <c r="N23" s="35"/>
-      <c r="O23" s="34" t="s">
+      <c r="M23" s="34"/>
+      <c r="N23" s="34"/>
+      <c r="O23" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="P23" s="35"/>
-      <c r="Q23" s="35"/>
-      <c r="R23" s="35"/>
-      <c r="S23" s="22"/>
-      <c r="T23" s="18"/>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A24" s="21"/>
-      <c r="B24" s="22"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="49"/>
+      <c r="P23" s="34"/>
+      <c r="Q23" s="34"/>
+      <c r="R23" s="34"/>
+      <c r="S23" s="21"/>
+      <c r="T23" s="17"/>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A24" s="20"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="48"/>
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
-      <c r="H24" s="34"/>
-      <c r="I24" s="34"/>
-      <c r="J24" s="34"/>
-      <c r="K24" s="34"/>
-      <c r="L24" s="34"/>
-      <c r="M24" s="35"/>
-      <c r="N24" s="35"/>
-      <c r="O24" s="34"/>
-      <c r="P24" s="35"/>
-      <c r="Q24" s="35"/>
-      <c r="R24" s="35"/>
-      <c r="S24" s="22"/>
-      <c r="T24" s="18"/>
-    </row>
-    <row r="25" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A25" s="21"/>
-      <c r="B25" s="55" t="s">
+      <c r="H24" s="33"/>
+      <c r="I24" s="33"/>
+      <c r="J24" s="33"/>
+      <c r="K24" s="33"/>
+      <c r="L24" s="33"/>
+      <c r="M24" s="34"/>
+      <c r="N24" s="34"/>
+      <c r="O24" s="33"/>
+      <c r="P24" s="34"/>
+      <c r="Q24" s="34"/>
+      <c r="R24" s="34"/>
+      <c r="S24" s="21"/>
+      <c r="T24" s="17"/>
+    </row>
+    <row r="25" spans="1:20" ht="16" x14ac:dyDescent="0.35">
+      <c r="A25" s="20"/>
+      <c r="B25" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="55"/>
+      <c r="C25" s="61"/>
       <c r="D25" s="8"/>
-      <c r="E25" s="49"/>
+      <c r="E25" s="48"/>
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
-      <c r="H25" s="29"/>
-      <c r="I25" s="29"/>
-      <c r="J25" s="28"/>
-      <c r="K25" s="28"/>
-      <c r="L25" s="30"/>
-      <c r="M25" s="30"/>
-      <c r="N25" s="30"/>
-      <c r="O25" s="28"/>
-      <c r="P25" s="30"/>
-      <c r="Q25" s="30"/>
-      <c r="R25" s="30"/>
-      <c r="S25" s="22"/>
-      <c r="T25" s="18"/>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A26" s="21"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="28"/>
+      <c r="J25" s="27"/>
+      <c r="K25" s="27"/>
+      <c r="L25" s="29"/>
+      <c r="M25" s="29"/>
+      <c r="N25" s="29"/>
+      <c r="O25" s="27"/>
+      <c r="P25" s="29"/>
+      <c r="Q25" s="29"/>
+      <c r="R25" s="29"/>
+      <c r="S25" s="21"/>
+      <c r="T25" s="17"/>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A26" s="20"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
-      <c r="E26" s="49"/>
+      <c r="E26" s="48"/>
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
-      <c r="H26" s="28"/>
-      <c r="I26" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="J26" s="28"/>
-      <c r="K26" s="30"/>
-      <c r="L26" s="30" t="s">
+      <c r="H26" s="27"/>
+      <c r="I26" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="J26" s="27"/>
+      <c r="K26" s="29"/>
+      <c r="L26" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="M26" s="30"/>
-      <c r="N26" s="30"/>
-      <c r="O26" s="28" t="s">
+      <c r="M26" s="29"/>
+      <c r="N26" s="29"/>
+      <c r="O26" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="P26" s="30"/>
-      <c r="Q26" s="30"/>
-      <c r="R26" s="30"/>
-      <c r="S26" s="22"/>
-      <c r="T26" s="18"/>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A27" s="21"/>
+      <c r="P26" s="29"/>
+      <c r="Q26" s="29"/>
+      <c r="R26" s="29"/>
+      <c r="S26" s="21"/>
+      <c r="T26" s="17"/>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A27" s="20"/>
       <c r="B27" s="6" t="s">
         <v>19</v>
       </c>
@@ -1930,29 +1932,29 @@
         <v>30</v>
       </c>
       <c r="D27" s="9"/>
-      <c r="E27" s="49"/>
+      <c r="E27" s="48"/>
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
-      <c r="H27" s="28"/>
-      <c r="I27" s="29"/>
-      <c r="J27" s="28"/>
-      <c r="K27" s="28"/>
-      <c r="L27" s="28" t="s">
+      <c r="H27" s="27"/>
+      <c r="I27" s="28"/>
+      <c r="J27" s="27"/>
+      <c r="K27" s="27"/>
+      <c r="L27" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="M27" s="30"/>
-      <c r="N27" s="30"/>
-      <c r="O27" s="28" t="s">
+      <c r="M27" s="29"/>
+      <c r="N27" s="29"/>
+      <c r="O27" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="P27" s="30"/>
-      <c r="Q27" s="30"/>
-      <c r="R27" s="30"/>
-      <c r="S27" s="22"/>
-      <c r="T27" s="18"/>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A28" s="21"/>
+      <c r="P27" s="29"/>
+      <c r="Q27" s="29"/>
+      <c r="R27" s="29"/>
+      <c r="S27" s="21"/>
+      <c r="T27" s="17"/>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A28" s="20"/>
       <c r="B28" s="6" t="s">
         <v>20</v>
       </c>
@@ -1960,155 +1962,155 @@
         <v>10</v>
       </c>
       <c r="D28" s="9"/>
-      <c r="E28" s="49"/>
+      <c r="E28" s="48"/>
       <c r="F28" s="6"/>
       <c r="G28" s="6"/>
-      <c r="H28" s="28"/>
-      <c r="I28" s="28"/>
-      <c r="J28" s="28"/>
-      <c r="K28" s="28"/>
-      <c r="L28" s="30"/>
-      <c r="M28" s="30"/>
-      <c r="N28" s="30"/>
-      <c r="O28" s="28"/>
-      <c r="P28" s="30"/>
-      <c r="Q28" s="30"/>
-      <c r="R28" s="30"/>
-      <c r="S28" s="22"/>
-      <c r="T28" s="18"/>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A29" s="21"/>
+      <c r="H28" s="27"/>
+      <c r="I28" s="27"/>
+      <c r="J28" s="27"/>
+      <c r="K28" s="27"/>
+      <c r="L28" s="29"/>
+      <c r="M28" s="29"/>
+      <c r="N28" s="29"/>
+      <c r="O28" s="27"/>
+      <c r="P28" s="29"/>
+      <c r="Q28" s="29"/>
+      <c r="R28" s="29"/>
+      <c r="S28" s="21"/>
+      <c r="T28" s="17"/>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A29" s="20"/>
       <c r="B29" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C29" s="16">
+      <c r="C29" s="15">
         <v>4</v>
       </c>
-      <c r="D29" s="16"/>
-      <c r="E29" s="49"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="48"/>
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
-      <c r="H29" s="28"/>
-      <c r="I29" s="28"/>
-      <c r="J29" s="28"/>
-      <c r="K29" s="28"/>
-      <c r="L29" s="28"/>
-      <c r="M29" s="28"/>
-      <c r="N29" s="28"/>
-      <c r="O29" s="28"/>
-      <c r="P29" s="30"/>
-      <c r="Q29" s="30"/>
-      <c r="R29" s="30"/>
-      <c r="S29" s="22"/>
-      <c r="T29" s="18"/>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A30" s="21"/>
+      <c r="H29" s="27"/>
+      <c r="I29" s="27"/>
+      <c r="J29" s="27"/>
+      <c r="K29" s="27"/>
+      <c r="L29" s="27"/>
+      <c r="M29" s="27"/>
+      <c r="N29" s="27"/>
+      <c r="O29" s="27"/>
+      <c r="P29" s="29"/>
+      <c r="Q29" s="29"/>
+      <c r="R29" s="29"/>
+      <c r="S29" s="21"/>
+      <c r="T29" s="17"/>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A30" s="20"/>
       <c r="B30" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C30" s="16">
+      <c r="C30" s="15">
         <v>106.82599999999999</v>
       </c>
-      <c r="D30" s="16"/>
-      <c r="E30" s="49"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="48"/>
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
-      <c r="H30" s="36"/>
-      <c r="I30" s="36"/>
-      <c r="J30" s="37"/>
-      <c r="K30" s="37"/>
-      <c r="L30" s="37"/>
-      <c r="M30" s="37"/>
-      <c r="N30" s="37"/>
-      <c r="O30" s="38"/>
-      <c r="P30" s="37"/>
-      <c r="Q30" s="37"/>
-      <c r="R30" s="37"/>
-      <c r="S30" s="22"/>
-      <c r="T30" s="18"/>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A31" s="21"/>
-      <c r="B31" s="60"/>
-      <c r="C31" s="60"/>
+      <c r="H30" s="35"/>
+      <c r="I30" s="35"/>
+      <c r="J30" s="36"/>
+      <c r="K30" s="36"/>
+      <c r="L30" s="36"/>
+      <c r="M30" s="36"/>
+      <c r="N30" s="36"/>
+      <c r="O30" s="37"/>
+      <c r="P30" s="36"/>
+      <c r="Q30" s="36"/>
+      <c r="R30" s="36"/>
+      <c r="S30" s="21"/>
+      <c r="T30" s="17"/>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A31" s="20"/>
+      <c r="B31" s="67"/>
+      <c r="C31" s="67"/>
       <c r="D31" s="7"/>
-      <c r="E31" s="49"/>
+      <c r="E31" s="48"/>
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
-      <c r="H31" s="37"/>
-      <c r="I31" s="36" t="s">
+      <c r="H31" s="36"/>
+      <c r="I31" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="J31" s="37"/>
-      <c r="K31" s="37"/>
-      <c r="L31" s="38" t="s">
+      <c r="J31" s="36"/>
+      <c r="K31" s="36"/>
+      <c r="L31" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="M31" s="37"/>
-      <c r="N31" s="37"/>
-      <c r="O31" s="38" t="s">
+      <c r="M31" s="36"/>
+      <c r="N31" s="36"/>
+      <c r="O31" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="P31" s="37"/>
-      <c r="Q31" s="37"/>
-      <c r="R31" s="37"/>
-      <c r="S31" s="22"/>
-      <c r="T31" s="18"/>
-    </row>
-    <row r="32" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A32" s="21"/>
-      <c r="B32" s="55" t="s">
+      <c r="P31" s="36"/>
+      <c r="Q31" s="36"/>
+      <c r="R31" s="36"/>
+      <c r="S31" s="21"/>
+      <c r="T31" s="17"/>
+    </row>
+    <row r="32" spans="1:20" ht="16" x14ac:dyDescent="0.35">
+      <c r="A32" s="20"/>
+      <c r="B32" s="61" t="s">
         <v>41</v>
       </c>
-      <c r="C32" s="55"/>
+      <c r="C32" s="61"/>
       <c r="D32" s="8"/>
-      <c r="E32" s="49"/>
+      <c r="E32" s="48"/>
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
-      <c r="H32" s="37"/>
-      <c r="I32" s="37"/>
-      <c r="J32" s="37"/>
-      <c r="K32" s="37"/>
-      <c r="L32" s="38" t="s">
+      <c r="H32" s="36"/>
+      <c r="I32" s="36"/>
+      <c r="J32" s="36"/>
+      <c r="K32" s="36"/>
+      <c r="L32" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="M32" s="37"/>
-      <c r="N32" s="37"/>
-      <c r="O32" s="38">
+      <c r="M32" s="36"/>
+      <c r="N32" s="36"/>
+      <c r="O32" s="37">
         <v>35</v>
       </c>
-      <c r="P32" s="37"/>
-      <c r="Q32" s="37"/>
-      <c r="R32" s="37"/>
-      <c r="S32" s="22"/>
-      <c r="T32" s="18"/>
-    </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A33" s="21"/>
+      <c r="P32" s="36"/>
+      <c r="Q32" s="36"/>
+      <c r="R32" s="36"/>
+      <c r="S32" s="21"/>
+      <c r="T32" s="17"/>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A33" s="20"/>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
-      <c r="E33" s="49"/>
+      <c r="E33" s="48"/>
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
-      <c r="H33" s="37"/>
-      <c r="I33" s="36"/>
-      <c r="J33" s="37"/>
-      <c r="K33" s="37"/>
-      <c r="L33" s="38"/>
-      <c r="M33" s="37"/>
-      <c r="N33" s="37"/>
-      <c r="O33" s="38"/>
-      <c r="P33" s="37"/>
-      <c r="Q33" s="37"/>
-      <c r="R33" s="37"/>
-      <c r="S33" s="22"/>
-      <c r="T33" s="18"/>
-    </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A34" s="21"/>
+      <c r="H33" s="36"/>
+      <c r="I33" s="35"/>
+      <c r="J33" s="36"/>
+      <c r="K33" s="36"/>
+      <c r="L33" s="37"/>
+      <c r="M33" s="36"/>
+      <c r="N33" s="36"/>
+      <c r="O33" s="37"/>
+      <c r="P33" s="36"/>
+      <c r="Q33" s="36"/>
+      <c r="R33" s="36"/>
+      <c r="S33" s="21"/>
+      <c r="T33" s="17"/>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A34" s="20"/>
       <c r="B34" s="6" t="s">
         <v>11</v>
       </c>
@@ -2116,25 +2118,25 @@
         <v>12</v>
       </c>
       <c r="D34" s="9"/>
-      <c r="E34" s="49"/>
+      <c r="E34" s="48"/>
       <c r="F34" s="6"/>
       <c r="G34" s="6"/>
-      <c r="H34" s="37"/>
-      <c r="I34" s="37"/>
-      <c r="J34" s="37"/>
-      <c r="K34" s="37"/>
-      <c r="L34" s="38"/>
-      <c r="M34" s="37"/>
-      <c r="N34" s="37"/>
-      <c r="O34" s="38"/>
-      <c r="P34" s="37"/>
-      <c r="Q34" s="37"/>
-      <c r="R34" s="37"/>
-      <c r="S34" s="22"/>
-      <c r="T34" s="18"/>
-    </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A35" s="21"/>
+      <c r="H34" s="36"/>
+      <c r="I34" s="36"/>
+      <c r="J34" s="36"/>
+      <c r="K34" s="36"/>
+      <c r="L34" s="37"/>
+      <c r="M34" s="36"/>
+      <c r="N34" s="36"/>
+      <c r="O34" s="37"/>
+      <c r="P34" s="36"/>
+      <c r="Q34" s="36"/>
+      <c r="R34" s="36"/>
+      <c r="S34" s="21"/>
+      <c r="T34" s="17"/>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A35" s="20"/>
       <c r="B35" s="6" t="s">
         <v>13</v>
       </c>
@@ -2142,175 +2144,175 @@
         <v>14</v>
       </c>
       <c r="D35" s="9"/>
-      <c r="E35" s="49"/>
+      <c r="E35" s="48"/>
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
-      <c r="H35" s="37"/>
-      <c r="I35" s="37"/>
-      <c r="J35" s="37"/>
-      <c r="K35" s="37"/>
-      <c r="L35" s="38"/>
-      <c r="M35" s="37"/>
-      <c r="N35" s="37"/>
-      <c r="O35" s="38"/>
-      <c r="P35" s="37"/>
-      <c r="Q35" s="37"/>
-      <c r="R35" s="37"/>
-      <c r="S35" s="22"/>
-      <c r="T35" s="18"/>
-    </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A36" s="21"/>
+      <c r="H35" s="36"/>
+      <c r="I35" s="36"/>
+      <c r="J35" s="36"/>
+      <c r="K35" s="36"/>
+      <c r="L35" s="37"/>
+      <c r="M35" s="36"/>
+      <c r="N35" s="36"/>
+      <c r="O35" s="37"/>
+      <c r="P35" s="36"/>
+      <c r="Q35" s="36"/>
+      <c r="R35" s="36"/>
+      <c r="S35" s="21"/>
+      <c r="T35" s="17"/>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A36" s="20"/>
       <c r="B36" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C36" s="9">
         <v>35</v>
       </c>
       <c r="D36" s="9"/>
-      <c r="E36" s="50"/>
+      <c r="E36" s="49"/>
       <c r="F36" s="9"/>
       <c r="G36" s="9"/>
-      <c r="H36" s="38"/>
-      <c r="I36" s="37"/>
-      <c r="J36" s="37"/>
-      <c r="K36" s="37"/>
-      <c r="L36" s="37"/>
-      <c r="M36" s="37"/>
-      <c r="N36" s="37"/>
-      <c r="O36" s="37"/>
-      <c r="P36" s="37"/>
-      <c r="Q36" s="37"/>
-      <c r="R36" s="37"/>
-      <c r="S36" s="22"/>
-      <c r="T36" s="18"/>
-    </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A37" s="21"/>
+      <c r="H36" s="37"/>
+      <c r="I36" s="36"/>
+      <c r="J36" s="36"/>
+      <c r="K36" s="36"/>
+      <c r="L36" s="36"/>
+      <c r="M36" s="36"/>
+      <c r="N36" s="36"/>
+      <c r="O36" s="36"/>
+      <c r="P36" s="36"/>
+      <c r="Q36" s="36"/>
+      <c r="R36" s="36"/>
+      <c r="S36" s="21"/>
+      <c r="T36" s="17"/>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A37" s="20"/>
       <c r="B37" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C37" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="D37" s="22"/>
+      <c r="E37" s="50"/>
+      <c r="F37" s="21"/>
+      <c r="G37" s="21"/>
+      <c r="H37" s="37"/>
+      <c r="I37" s="36"/>
+      <c r="J37" s="36"/>
+      <c r="K37" s="36"/>
+      <c r="L37" s="36"/>
+      <c r="M37" s="36"/>
+      <c r="N37" s="36"/>
+      <c r="O37" s="36"/>
+      <c r="P37" s="36"/>
+      <c r="Q37" s="36"/>
+      <c r="R37" s="36"/>
+      <c r="S37" s="21"/>
+      <c r="T37" s="17"/>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A38" s="20"/>
+      <c r="B38" s="6" t="s">
         <v>66</v>
-      </c>
-      <c r="C37" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="D37" s="23"/>
-      <c r="E37" s="51"/>
-      <c r="F37" s="22"/>
-      <c r="G37" s="22"/>
-      <c r="H37" s="38"/>
-      <c r="I37" s="37"/>
-      <c r="J37" s="37"/>
-      <c r="K37" s="37"/>
-      <c r="L37" s="37"/>
-      <c r="M37" s="37"/>
-      <c r="N37" s="37"/>
-      <c r="O37" s="37"/>
-      <c r="P37" s="37"/>
-      <c r="Q37" s="37"/>
-      <c r="R37" s="37"/>
-      <c r="S37" s="22"/>
-      <c r="T37" s="18"/>
-    </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A38" s="21"/>
-      <c r="B38" s="6" t="s">
-        <v>67</v>
       </c>
       <c r="C38" s="9">
         <v>12</v>
       </c>
       <c r="D38" s="9"/>
-      <c r="E38" s="51"/>
-      <c r="F38" s="22"/>
-      <c r="G38" s="22"/>
-      <c r="H38" s="53"/>
-      <c r="I38" s="53"/>
-      <c r="J38" s="53"/>
-      <c r="K38" s="53"/>
-      <c r="L38" s="53"/>
-      <c r="M38" s="53"/>
-      <c r="N38" s="53"/>
-      <c r="O38" s="53"/>
-      <c r="P38" s="53"/>
-      <c r="Q38" s="53"/>
-      <c r="R38" s="53"/>
-      <c r="S38" s="22"/>
-      <c r="T38" s="18"/>
-    </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A39" s="21"/>
-      <c r="B39" s="22"/>
-      <c r="C39" s="23"/>
-      <c r="D39" s="23"/>
-      <c r="E39" s="51"/>
-      <c r="F39" s="22"/>
-      <c r="G39" s="22"/>
-      <c r="H39" s="53"/>
-      <c r="I39" s="53"/>
-      <c r="J39" s="53"/>
-      <c r="K39" s="53"/>
-      <c r="L39" s="53"/>
-      <c r="M39" s="53"/>
-      <c r="N39" s="53"/>
-      <c r="O39" s="53"/>
-      <c r="P39" s="53"/>
-      <c r="Q39" s="53"/>
-      <c r="R39" s="53"/>
-      <c r="S39" s="22"/>
-      <c r="T39" s="18"/>
-    </row>
-    <row r="40" spans="1:20" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="21"/>
-      <c r="B40" s="55" t="s">
+      <c r="E38" s="50"/>
+      <c r="F38" s="21"/>
+      <c r="G38" s="21"/>
+      <c r="H38" s="52"/>
+      <c r="I38" s="52"/>
+      <c r="J38" s="52"/>
+      <c r="K38" s="52"/>
+      <c r="L38" s="52"/>
+      <c r="M38" s="52"/>
+      <c r="N38" s="52"/>
+      <c r="O38" s="52"/>
+      <c r="P38" s="52"/>
+      <c r="Q38" s="52"/>
+      <c r="R38" s="52"/>
+      <c r="S38" s="21"/>
+      <c r="T38" s="17"/>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A39" s="20"/>
+      <c r="B39" s="21"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="22"/>
+      <c r="E39" s="50"/>
+      <c r="F39" s="21"/>
+      <c r="G39" s="21"/>
+      <c r="H39" s="52"/>
+      <c r="I39" s="52"/>
+      <c r="J39" s="52"/>
+      <c r="K39" s="52"/>
+      <c r="L39" s="52"/>
+      <c r="M39" s="52"/>
+      <c r="N39" s="52"/>
+      <c r="O39" s="52"/>
+      <c r="P39" s="52"/>
+      <c r="Q39" s="52"/>
+      <c r="R39" s="52"/>
+      <c r="S39" s="21"/>
+      <c r="T39" s="17"/>
+    </row>
+    <row r="40" spans="1:20" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="20"/>
+      <c r="B40" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="C40" s="55"/>
+      <c r="C40" s="61"/>
       <c r="D40" s="8"/>
-      <c r="E40" s="51"/>
-      <c r="F40" s="22"/>
-      <c r="G40" s="39" t="s">
+      <c r="E40" s="50"/>
+      <c r="F40" s="21"/>
+      <c r="G40" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="H40" s="58" t="s">
-        <v>51</v>
-      </c>
-      <c r="I40" s="58"/>
-      <c r="J40" s="58"/>
-      <c r="K40" s="58"/>
-      <c r="L40" s="58"/>
-      <c r="M40" s="58"/>
-      <c r="N40" s="58"/>
-      <c r="O40" s="58"/>
-      <c r="P40" s="58"/>
-      <c r="Q40" s="58"/>
-      <c r="R40" s="53"/>
-      <c r="S40" s="22"/>
-      <c r="T40" s="18"/>
-    </row>
-    <row r="41" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="21"/>
-      <c r="B41" s="22"/>
-      <c r="C41" s="23"/>
-      <c r="D41" s="23"/>
-      <c r="E41" s="51"/>
-      <c r="F41" s="22"/>
-      <c r="G41" s="39"/>
-      <c r="H41" s="58"/>
-      <c r="I41" s="58"/>
-      <c r="J41" s="58"/>
-      <c r="K41" s="58"/>
-      <c r="L41" s="58"/>
-      <c r="M41" s="58"/>
-      <c r="N41" s="58"/>
-      <c r="O41" s="58"/>
-      <c r="P41" s="58"/>
-      <c r="Q41" s="58"/>
-      <c r="R41" s="53"/>
-      <c r="S41" s="22"/>
-      <c r="T41" s="18"/>
-    </row>
-    <row r="42" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="21"/>
+      <c r="H40" s="63" t="s">
+        <v>50</v>
+      </c>
+      <c r="I40" s="63"/>
+      <c r="J40" s="63"/>
+      <c r="K40" s="63"/>
+      <c r="L40" s="63"/>
+      <c r="M40" s="63"/>
+      <c r="N40" s="63"/>
+      <c r="O40" s="63"/>
+      <c r="P40" s="63"/>
+      <c r="Q40" s="63"/>
+      <c r="R40" s="52"/>
+      <c r="S40" s="21"/>
+      <c r="T40" s="17"/>
+    </row>
+    <row r="41" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="20"/>
+      <c r="B41" s="21"/>
+      <c r="C41" s="22"/>
+      <c r="D41" s="22"/>
+      <c r="E41" s="50"/>
+      <c r="F41" s="21"/>
+      <c r="G41" s="38"/>
+      <c r="H41" s="63"/>
+      <c r="I41" s="63"/>
+      <c r="J41" s="63"/>
+      <c r="K41" s="63"/>
+      <c r="L41" s="63"/>
+      <c r="M41" s="63"/>
+      <c r="N41" s="63"/>
+      <c r="O41" s="63"/>
+      <c r="P41" s="63"/>
+      <c r="Q41" s="63"/>
+      <c r="R41" s="52"/>
+      <c r="S41" s="21"/>
+      <c r="T41" s="17"/>
+    </row>
+    <row r="42" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="20"/>
       <c r="B42" s="6" t="s">
         <v>15</v>
       </c>
@@ -2318,27 +2320,27 @@
         <v>16</v>
       </c>
       <c r="D42" s="9"/>
-      <c r="E42" s="51"/>
-      <c r="F42" s="22"/>
-      <c r="G42" s="39" t="s">
+      <c r="E42" s="50"/>
+      <c r="F42" s="21"/>
+      <c r="G42" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="H42" s="58"/>
-      <c r="I42" s="58"/>
-      <c r="J42" s="58"/>
-      <c r="K42" s="58"/>
-      <c r="L42" s="58"/>
-      <c r="M42" s="58"/>
-      <c r="N42" s="58"/>
-      <c r="O42" s="58"/>
-      <c r="P42" s="58"/>
-      <c r="Q42" s="58"/>
-      <c r="R42" s="53"/>
-      <c r="S42" s="53"/>
-      <c r="T42" s="18"/>
-    </row>
-    <row r="43" spans="1:20" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="21"/>
+      <c r="H42" s="63"/>
+      <c r="I42" s="63"/>
+      <c r="J42" s="63"/>
+      <c r="K42" s="63"/>
+      <c r="L42" s="63"/>
+      <c r="M42" s="63"/>
+      <c r="N42" s="63"/>
+      <c r="O42" s="63"/>
+      <c r="P42" s="63"/>
+      <c r="Q42" s="63"/>
+      <c r="R42" s="52"/>
+      <c r="S42" s="52"/>
+      <c r="T42" s="17"/>
+    </row>
+    <row r="43" spans="1:20" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="20"/>
       <c r="B43" s="6" t="s">
         <v>17</v>
       </c>
@@ -2346,25 +2348,25 @@
         <v>6</v>
       </c>
       <c r="D43" s="9"/>
-      <c r="E43" s="51"/>
-      <c r="F43" s="22"/>
-      <c r="G43" s="39"/>
-      <c r="H43" s="58"/>
-      <c r="I43" s="58"/>
-      <c r="J43" s="58"/>
-      <c r="K43" s="58"/>
-      <c r="L43" s="58"/>
-      <c r="M43" s="58"/>
-      <c r="N43" s="58"/>
-      <c r="O43" s="58"/>
-      <c r="P43" s="58"/>
-      <c r="Q43" s="58"/>
-      <c r="R43" s="63"/>
-      <c r="S43" s="53"/>
-      <c r="T43" s="18"/>
-    </row>
-    <row r="44" spans="1:20" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="21"/>
+      <c r="E43" s="50"/>
+      <c r="F43" s="21"/>
+      <c r="G43" s="38"/>
+      <c r="H43" s="63"/>
+      <c r="I43" s="63"/>
+      <c r="J43" s="63"/>
+      <c r="K43" s="63"/>
+      <c r="L43" s="63"/>
+      <c r="M43" s="63"/>
+      <c r="N43" s="63"/>
+      <c r="O43" s="63"/>
+      <c r="P43" s="63"/>
+      <c r="Q43" s="63"/>
+      <c r="R43" s="54"/>
+      <c r="S43" s="52"/>
+      <c r="T43" s="17"/>
+    </row>
+    <row r="44" spans="1:20" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="20"/>
       <c r="B44" s="6" t="s">
         <v>18</v>
       </c>
@@ -2372,93 +2374,93 @@
         <v>500</v>
       </c>
       <c r="D44" s="9"/>
-      <c r="E44" s="51"/>
-      <c r="F44" s="22"/>
-      <c r="G44" s="39"/>
-      <c r="H44" s="58"/>
-      <c r="I44" s="58"/>
-      <c r="J44" s="58"/>
-      <c r="K44" s="58"/>
-      <c r="L44" s="58"/>
-      <c r="M44" s="58"/>
-      <c r="N44" s="58"/>
-      <c r="O44" s="58"/>
-      <c r="P44" s="58"/>
-      <c r="Q44" s="58"/>
-      <c r="R44" s="63"/>
-      <c r="S44" s="53"/>
-      <c r="T44" s="18"/>
-    </row>
-    <row r="45" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="21"/>
+      <c r="E44" s="50"/>
+      <c r="F44" s="21"/>
+      <c r="G44" s="38"/>
+      <c r="H44" s="63"/>
+      <c r="I44" s="63"/>
+      <c r="J44" s="63"/>
+      <c r="K44" s="63"/>
+      <c r="L44" s="63"/>
+      <c r="M44" s="63"/>
+      <c r="N44" s="63"/>
+      <c r="O44" s="63"/>
+      <c r="P44" s="63"/>
+      <c r="Q44" s="63"/>
+      <c r="R44" s="54"/>
+      <c r="S44" s="52"/>
+      <c r="T44" s="17"/>
+    </row>
+    <row r="45" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="20"/>
       <c r="B45" s="6"/>
-      <c r="C45" s="17"/>
-      <c r="D45" s="17"/>
-      <c r="E45" s="51"/>
-      <c r="F45" s="22"/>
-      <c r="G45" s="39"/>
-      <c r="H45" s="58"/>
-      <c r="I45" s="58"/>
-      <c r="J45" s="58"/>
-      <c r="K45" s="58"/>
-      <c r="L45" s="58"/>
-      <c r="M45" s="58"/>
-      <c r="N45" s="58"/>
-      <c r="O45" s="58"/>
-      <c r="P45" s="58"/>
-      <c r="Q45" s="58"/>
-      <c r="R45" s="63"/>
-      <c r="S45" s="53"/>
-      <c r="T45" s="18"/>
-    </row>
-    <row r="46" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="21"/>
-      <c r="B46" s="55" t="s">
+      <c r="C45" s="16"/>
+      <c r="D45" s="16"/>
+      <c r="E45" s="50"/>
+      <c r="F45" s="21"/>
+      <c r="G45" s="38"/>
+      <c r="H45" s="63"/>
+      <c r="I45" s="63"/>
+      <c r="J45" s="63"/>
+      <c r="K45" s="63"/>
+      <c r="L45" s="63"/>
+      <c r="M45" s="63"/>
+      <c r="N45" s="63"/>
+      <c r="O45" s="63"/>
+      <c r="P45" s="63"/>
+      <c r="Q45" s="63"/>
+      <c r="R45" s="54"/>
+      <c r="S45" s="52"/>
+      <c r="T45" s="17"/>
+    </row>
+    <row r="46" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="20"/>
+      <c r="B46" s="61" t="s">
         <v>43</v>
       </c>
-      <c r="C46" s="55"/>
+      <c r="C46" s="61"/>
       <c r="D46" s="8"/>
-      <c r="E46" s="51"/>
-      <c r="F46" s="22"/>
-      <c r="G46" s="39"/>
-      <c r="H46" s="58"/>
-      <c r="I46" s="58"/>
-      <c r="J46" s="58"/>
-      <c r="K46" s="58"/>
-      <c r="L46" s="58"/>
-      <c r="M46" s="58"/>
-      <c r="N46" s="58"/>
-      <c r="O46" s="58"/>
-      <c r="P46" s="58"/>
-      <c r="Q46" s="58"/>
-      <c r="R46" s="63"/>
-      <c r="S46" s="53"/>
-      <c r="T46" s="18"/>
-    </row>
-    <row r="47" spans="1:20" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="21"/>
-      <c r="B47" s="60"/>
-      <c r="C47" s="60"/>
+      <c r="E46" s="50"/>
+      <c r="F46" s="21"/>
+      <c r="G46" s="38"/>
+      <c r="H46" s="63"/>
+      <c r="I46" s="63"/>
+      <c r="J46" s="63"/>
+      <c r="K46" s="63"/>
+      <c r="L46" s="63"/>
+      <c r="M46" s="63"/>
+      <c r="N46" s="63"/>
+      <c r="O46" s="63"/>
+      <c r="P46" s="63"/>
+      <c r="Q46" s="63"/>
+      <c r="R46" s="54"/>
+      <c r="S46" s="52"/>
+      <c r="T46" s="17"/>
+    </row>
+    <row r="47" spans="1:20" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="20"/>
+      <c r="B47" s="67"/>
+      <c r="C47" s="67"/>
       <c r="D47" s="7"/>
-      <c r="E47" s="51"/>
-      <c r="F47" s="22"/>
-      <c r="G47" s="39"/>
-      <c r="H47" s="58"/>
-      <c r="I47" s="58"/>
-      <c r="J47" s="58"/>
-      <c r="K47" s="58"/>
-      <c r="L47" s="58"/>
-      <c r="M47" s="58"/>
-      <c r="N47" s="58"/>
-      <c r="O47" s="58"/>
-      <c r="P47" s="58"/>
-      <c r="Q47" s="58"/>
-      <c r="R47" s="63"/>
-      <c r="S47" s="53"/>
-      <c r="T47" s="18"/>
-    </row>
-    <row r="48" spans="1:20" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="21"/>
+      <c r="E47" s="50"/>
+      <c r="F47" s="21"/>
+      <c r="G47" s="38"/>
+      <c r="H47" s="63"/>
+      <c r="I47" s="63"/>
+      <c r="J47" s="63"/>
+      <c r="K47" s="63"/>
+      <c r="L47" s="63"/>
+      <c r="M47" s="63"/>
+      <c r="N47" s="63"/>
+      <c r="O47" s="63"/>
+      <c r="P47" s="63"/>
+      <c r="Q47" s="63"/>
+      <c r="R47" s="54"/>
+      <c r="S47" s="52"/>
+      <c r="T47" s="17"/>
+    </row>
+    <row r="48" spans="1:20" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="20"/>
       <c r="B48" s="6" t="s">
         <v>6</v>
       </c>
@@ -2466,25 +2468,25 @@
         <v>570</v>
       </c>
       <c r="D48" s="9"/>
-      <c r="E48" s="51"/>
-      <c r="F48" s="22"/>
-      <c r="G48" s="40"/>
-      <c r="H48" s="63"/>
-      <c r="I48" s="63"/>
-      <c r="J48" s="63"/>
-      <c r="K48" s="63"/>
-      <c r="L48" s="63"/>
-      <c r="M48" s="63"/>
-      <c r="N48" s="63"/>
-      <c r="O48" s="63"/>
-      <c r="P48" s="63"/>
-      <c r="Q48" s="63"/>
-      <c r="R48" s="63"/>
-      <c r="S48" s="53"/>
-      <c r="T48" s="18"/>
-    </row>
-    <row r="49" spans="1:20" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="21"/>
+      <c r="E48" s="50"/>
+      <c r="F48" s="21"/>
+      <c r="G48" s="39"/>
+      <c r="H48" s="54"/>
+      <c r="I48" s="54"/>
+      <c r="J48" s="54"/>
+      <c r="K48" s="54"/>
+      <c r="L48" s="54"/>
+      <c r="M48" s="54"/>
+      <c r="N48" s="54"/>
+      <c r="O48" s="54"/>
+      <c r="P48" s="54"/>
+      <c r="Q48" s="54"/>
+      <c r="R48" s="54"/>
+      <c r="S48" s="52"/>
+      <c r="T48" s="17"/>
+    </row>
+    <row r="49" spans="1:20" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="20"/>
       <c r="B49" s="9" t="s">
         <v>23</v>
       </c>
@@ -2492,79 +2494,69 @@
         <v>5</v>
       </c>
       <c r="D49" s="9"/>
-      <c r="E49" s="51"/>
-      <c r="F49" s="22"/>
-      <c r="G49" s="40"/>
-      <c r="H49" s="63"/>
-      <c r="I49" s="63"/>
-      <c r="J49" s="63"/>
-      <c r="K49" s="63"/>
-      <c r="L49" s="63"/>
-      <c r="M49" s="63"/>
-      <c r="N49" s="63"/>
-      <c r="O49" s="63"/>
-      <c r="P49" s="63"/>
-      <c r="Q49" s="63"/>
-      <c r="R49" s="63"/>
-      <c r="S49" s="53"/>
-      <c r="T49" s="18"/>
-    </row>
-    <row r="50" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="21"/>
+      <c r="E49" s="50"/>
+      <c r="F49" s="21"/>
+      <c r="G49" s="39"/>
+      <c r="H49" s="54"/>
+      <c r="I49" s="54"/>
+      <c r="J49" s="54"/>
+      <c r="K49" s="54"/>
+      <c r="L49" s="54"/>
+      <c r="M49" s="54"/>
+      <c r="N49" s="54"/>
+      <c r="O49" s="54"/>
+      <c r="P49" s="54"/>
+      <c r="Q49" s="54"/>
+      <c r="R49" s="54"/>
+      <c r="S49" s="52"/>
+      <c r="T49" s="17"/>
+    </row>
+    <row r="50" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="20"/>
       <c r="B50" s="9"/>
       <c r="C50" s="9"/>
       <c r="D50" s="9"/>
-      <c r="E50" s="49"/>
+      <c r="E50" s="48"/>
       <c r="F50" s="6"/>
-      <c r="G50" s="40"/>
-      <c r="H50" s="63"/>
-      <c r="I50" s="63"/>
-      <c r="J50" s="63"/>
-      <c r="K50" s="63"/>
-      <c r="L50" s="63"/>
-      <c r="M50" s="63"/>
-      <c r="N50" s="63"/>
-      <c r="O50" s="63"/>
-      <c r="P50" s="63"/>
-      <c r="Q50" s="63"/>
-      <c r="R50" s="63"/>
-      <c r="S50" s="53"/>
-      <c r="T50" s="18"/>
-    </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A51" s="41"/>
-      <c r="B51" s="42"/>
-      <c r="C51" s="43"/>
-      <c r="D51" s="43"/>
-      <c r="E51" s="52"/>
-      <c r="F51" s="20"/>
-      <c r="G51" s="42"/>
-      <c r="H51" s="42"/>
-      <c r="I51" s="42"/>
-      <c r="J51" s="42"/>
-      <c r="K51" s="42"/>
-      <c r="L51" s="42"/>
-      <c r="M51" s="42"/>
-      <c r="N51" s="42"/>
-      <c r="O51" s="42"/>
-      <c r="P51" s="42"/>
-      <c r="Q51" s="42"/>
-      <c r="R51" s="42"/>
-      <c r="S51" s="43"/>
-      <c r="T51" s="44"/>
+      <c r="G50" s="39"/>
+      <c r="H50" s="54"/>
+      <c r="I50" s="54"/>
+      <c r="J50" s="54"/>
+      <c r="K50" s="54"/>
+      <c r="L50" s="54"/>
+      <c r="M50" s="54"/>
+      <c r="N50" s="54"/>
+      <c r="O50" s="54"/>
+      <c r="P50" s="54"/>
+      <c r="Q50" s="54"/>
+      <c r="R50" s="54"/>
+      <c r="S50" s="52"/>
+      <c r="T50" s="17"/>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A51" s="40"/>
+      <c r="B51" s="41"/>
+      <c r="C51" s="42"/>
+      <c r="D51" s="42"/>
+      <c r="E51" s="51"/>
+      <c r="F51" s="19"/>
+      <c r="G51" s="41"/>
+      <c r="H51" s="41"/>
+      <c r="I51" s="41"/>
+      <c r="J51" s="41"/>
+      <c r="K51" s="41"/>
+      <c r="L51" s="41"/>
+      <c r="M51" s="41"/>
+      <c r="N51" s="41"/>
+      <c r="O51" s="41"/>
+      <c r="P51" s="41"/>
+      <c r="Q51" s="41"/>
+      <c r="R51" s="41"/>
+      <c r="S51" s="42"/>
+      <c r="T51" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B21:C23"/>
-    <mergeCell ref="H40:Q47"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="A1:T1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="G3:S3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="G4:S4"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B47:C47"/>
     <mergeCell ref="B46:C46"/>
@@ -2574,6 +2566,16 @@
     <mergeCell ref="B31:C31"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="B25:C25"/>
+    <mergeCell ref="A1:T1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="G3:S3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="G4:S4"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B21:C23"/>
+    <mergeCell ref="H40:Q47"/>
+    <mergeCell ref="B40:C40"/>
   </mergeCells>
   <dataValidations disablePrompts="1" xWindow="413" yWindow="673" count="3">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="STOP!_x000a__x000a_Use button to return to Input Worksheet." sqref="C27:D30 C48:D50 C45:D45 C42:D42 C38:D38 C34:D36" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
@@ -2603,61 +2605,61 @@
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="7.77734375" customWidth="1"/>
-    <col min="3" max="3" width="18.44140625" customWidth="1"/>
-    <col min="4" max="4" width="17.6640625" customWidth="1"/>
-    <col min="5" max="5" width="14.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.81640625" customWidth="1"/>
+    <col min="3" max="3" width="18.453125" customWidth="1"/>
+    <col min="4" max="4" width="17.6328125" customWidth="1"/>
+    <col min="5" max="5" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.36328125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.90625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.08984375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.6328125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="37.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>65</v>
       </c>
     </row>
   </sheetData>
